--- a/formatos_hoja_de_calculo/Control de Actividades Ver.2019.xlsx
+++ b/formatos_hoja_de_calculo/Control de Actividades Ver.2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01B7C17-8F2E-4B85-B2BF-EDA00019FFBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C63E4CB-D2B2-4311-90EE-ED2BE9552F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notas - Por Asignatura" sheetId="1" r:id="rId1"/>
@@ -1457,6 +1457,54 @@
     <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="21" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1487,24 +1535,6 @@
     <xf numFmtId="0" fontId="24" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="41" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1523,34 +1553,43 @@
     <xf numFmtId="0" fontId="22" fillId="41" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1563,45 +1602,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1650,24 +1650,11 @@
     <cellStyle name="Título 3" xfId="41" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="119">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1740,6 +1727,451 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2573,13 +3005,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CH73"/>
+  <dimension ref="A1:CH83"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="12" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="6" ySplit="12" topLeftCell="G73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="AR79" sqref="AR79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2599,13 +3031,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:86" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="A1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:86" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2624,15 +3056,15 @@
         <v>9</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="G4" s="109" t="s">
+      <c r="G4" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
       <c r="S4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AF4" s="4"/>
@@ -2655,432 +3087,432 @@
         <v>11</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="107" t="str">
+      <c r="G6" s="81" t="str">
         <f>IF(Y11&gt;110%,"Error Mayor que 110%","")</f>
         <v/>
       </c>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="Z6" s="107" t="str">
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="Z6" s="81" t="str">
         <f>IF(AR11&gt;110%,"Error Mayor que 110%","")</f>
         <v/>
       </c>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="108"/>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="108"/>
-      <c r="AS6" s="107" t="str">
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="82"/>
+      <c r="AS6" s="81" t="str">
         <f>IF(BK11&gt;110%,"Error Mayor que 110%","")</f>
         <v/>
       </c>
-      <c r="AT6" s="108"/>
-      <c r="AU6" s="108"/>
-      <c r="AV6" s="108"/>
-      <c r="AW6" s="108"/>
-      <c r="AX6" s="108"/>
-      <c r="BL6" s="107" t="str">
+      <c r="AT6" s="82"/>
+      <c r="AU6" s="82"/>
+      <c r="AV6" s="82"/>
+      <c r="AW6" s="82"/>
+      <c r="AX6" s="82"/>
+      <c r="BL6" s="81" t="str">
         <f>IF(CD11&gt;110%,"Error Mayor que 110%","")</f>
         <v/>
       </c>
-      <c r="BM6" s="108"/>
-      <c r="BN6" s="108"/>
-      <c r="BO6" s="108"/>
-      <c r="BP6" s="108"/>
-      <c r="BQ6" s="108"/>
+      <c r="BM6" s="82"/>
+      <c r="BN6" s="82"/>
+      <c r="BO6" s="82"/>
+      <c r="BP6" s="82"/>
+      <c r="BQ6" s="82"/>
     </row>
     <row r="7" spans="1:86" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="90"/>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="90"/>
-      <c r="AG7" s="90"/>
-      <c r="AH7" s="90"/>
-      <c r="AI7" s="90"/>
-      <c r="AJ7" s="90"/>
-      <c r="AK7" s="90"/>
-      <c r="AL7" s="90"/>
-      <c r="AM7" s="90"/>
-      <c r="AN7" s="90"/>
-      <c r="AO7" s="90"/>
-      <c r="AP7" s="90"/>
-      <c r="AQ7" s="90"/>
-      <c r="AR7" s="91"/>
-      <c r="AS7" s="89"/>
-      <c r="AT7" s="90"/>
-      <c r="AU7" s="90"/>
-      <c r="AV7" s="90"/>
-      <c r="AW7" s="90"/>
-      <c r="AX7" s="90"/>
-      <c r="AY7" s="90"/>
-      <c r="AZ7" s="90"/>
-      <c r="BA7" s="90"/>
-      <c r="BB7" s="90"/>
-      <c r="BC7" s="90"/>
-      <c r="BD7" s="90"/>
-      <c r="BE7" s="90"/>
-      <c r="BF7" s="90"/>
-      <c r="BG7" s="90"/>
-      <c r="BH7" s="90"/>
-      <c r="BI7" s="90"/>
-      <c r="BJ7" s="90"/>
-      <c r="BK7" s="91"/>
-      <c r="BL7" s="89"/>
-      <c r="BM7" s="90"/>
-      <c r="BN7" s="90"/>
-      <c r="BO7" s="90"/>
-      <c r="BP7" s="90"/>
-      <c r="BQ7" s="90"/>
-      <c r="BR7" s="90"/>
-      <c r="BS7" s="90"/>
-      <c r="BT7" s="90"/>
-      <c r="BU7" s="90"/>
-      <c r="BV7" s="90"/>
-      <c r="BW7" s="90"/>
-      <c r="BX7" s="90"/>
-      <c r="BY7" s="90"/>
-      <c r="BZ7" s="90"/>
-      <c r="CA7" s="90"/>
-      <c r="CB7" s="90"/>
-      <c r="CC7" s="90"/>
-      <c r="CD7" s="91"/>
-      <c r="CE7" s="80" t="s">
+      <c r="G7" s="85"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="86"/>
+      <c r="AG7" s="86"/>
+      <c r="AH7" s="86"/>
+      <c r="AI7" s="86"/>
+      <c r="AJ7" s="86"/>
+      <c r="AK7" s="86"/>
+      <c r="AL7" s="86"/>
+      <c r="AM7" s="86"/>
+      <c r="AN7" s="86"/>
+      <c r="AO7" s="86"/>
+      <c r="AP7" s="86"/>
+      <c r="AQ7" s="86"/>
+      <c r="AR7" s="87"/>
+      <c r="AS7" s="94"/>
+      <c r="AT7" s="86"/>
+      <c r="AU7" s="86"/>
+      <c r="AV7" s="86"/>
+      <c r="AW7" s="86"/>
+      <c r="AX7" s="86"/>
+      <c r="AY7" s="86"/>
+      <c r="AZ7" s="86"/>
+      <c r="BA7" s="86"/>
+      <c r="BB7" s="86"/>
+      <c r="BC7" s="86"/>
+      <c r="BD7" s="86"/>
+      <c r="BE7" s="86"/>
+      <c r="BF7" s="86"/>
+      <c r="BG7" s="86"/>
+      <c r="BH7" s="86"/>
+      <c r="BI7" s="86"/>
+      <c r="BJ7" s="86"/>
+      <c r="BK7" s="87"/>
+      <c r="BL7" s="94"/>
+      <c r="BM7" s="86"/>
+      <c r="BN7" s="86"/>
+      <c r="BO7" s="86"/>
+      <c r="BP7" s="86"/>
+      <c r="BQ7" s="86"/>
+      <c r="BR7" s="86"/>
+      <c r="BS7" s="86"/>
+      <c r="BT7" s="86"/>
+      <c r="BU7" s="86"/>
+      <c r="BV7" s="86"/>
+      <c r="BW7" s="86"/>
+      <c r="BX7" s="86"/>
+      <c r="BY7" s="86"/>
+      <c r="BZ7" s="86"/>
+      <c r="CA7" s="86"/>
+      <c r="CB7" s="86"/>
+      <c r="CC7" s="86"/>
+      <c r="CD7" s="87"/>
+      <c r="CE7" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="CF7" s="81"/>
-      <c r="CG7" s="81"/>
-      <c r="CH7" s="82"/>
+      <c r="CF7" s="97"/>
+      <c r="CG7" s="97"/>
+      <c r="CH7" s="98"/>
     </row>
     <row r="8" spans="1:86" ht="18" x14ac:dyDescent="0.25">
-      <c r="G8" s="92">
+      <c r="G8" s="91">
         <v>1</v>
       </c>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="94"/>
-      <c r="Z8" s="92">
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="91">
         <v>2</v>
       </c>
-      <c r="AA8" s="93"/>
-      <c r="AB8" s="93"/>
-      <c r="AC8" s="93"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="93"/>
-      <c r="AF8" s="93"/>
-      <c r="AG8" s="93"/>
-      <c r="AH8" s="93"/>
-      <c r="AI8" s="93"/>
-      <c r="AJ8" s="93"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="93"/>
-      <c r="AM8" s="93"/>
-      <c r="AN8" s="93"/>
-      <c r="AO8" s="93"/>
-      <c r="AP8" s="93"/>
-      <c r="AQ8" s="93"/>
-      <c r="AR8" s="94"/>
-      <c r="AS8" s="92">
+      <c r="AA8" s="92"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="92"/>
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="92"/>
+      <c r="AG8" s="92"/>
+      <c r="AH8" s="92"/>
+      <c r="AI8" s="92"/>
+      <c r="AJ8" s="92"/>
+      <c r="AK8" s="92"/>
+      <c r="AL8" s="92"/>
+      <c r="AM8" s="92"/>
+      <c r="AN8" s="92"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="92"/>
+      <c r="AQ8" s="92"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="91">
         <v>3</v>
       </c>
-      <c r="AT8" s="93"/>
-      <c r="AU8" s="93"/>
-      <c r="AV8" s="93"/>
-      <c r="AW8" s="93"/>
-      <c r="AX8" s="93"/>
-      <c r="AY8" s="93"/>
-      <c r="AZ8" s="93"/>
-      <c r="BA8" s="93"/>
-      <c r="BB8" s="93"/>
-      <c r="BC8" s="93"/>
-      <c r="BD8" s="93"/>
-      <c r="BE8" s="93"/>
-      <c r="BF8" s="93"/>
-      <c r="BG8" s="93"/>
-      <c r="BH8" s="93"/>
-      <c r="BI8" s="93"/>
-      <c r="BJ8" s="93"/>
-      <c r="BK8" s="94"/>
-      <c r="BL8" s="92">
+      <c r="AT8" s="92"/>
+      <c r="AU8" s="92"/>
+      <c r="AV8" s="92"/>
+      <c r="AW8" s="92"/>
+      <c r="AX8" s="92"/>
+      <c r="AY8" s="92"/>
+      <c r="AZ8" s="92"/>
+      <c r="BA8" s="92"/>
+      <c r="BB8" s="92"/>
+      <c r="BC8" s="92"/>
+      <c r="BD8" s="92"/>
+      <c r="BE8" s="92"/>
+      <c r="BF8" s="92"/>
+      <c r="BG8" s="92"/>
+      <c r="BH8" s="92"/>
+      <c r="BI8" s="92"/>
+      <c r="BJ8" s="92"/>
+      <c r="BK8" s="93"/>
+      <c r="BL8" s="91">
         <v>4</v>
       </c>
-      <c r="BM8" s="93"/>
-      <c r="BN8" s="93"/>
-      <c r="BO8" s="93"/>
-      <c r="BP8" s="93"/>
-      <c r="BQ8" s="93"/>
-      <c r="BR8" s="93"/>
-      <c r="BS8" s="93"/>
-      <c r="BT8" s="93"/>
-      <c r="BU8" s="93"/>
-      <c r="BV8" s="93"/>
-      <c r="BW8" s="93"/>
-      <c r="BX8" s="93"/>
-      <c r="BY8" s="93"/>
-      <c r="BZ8" s="93"/>
-      <c r="CA8" s="93"/>
-      <c r="CB8" s="93"/>
-      <c r="CC8" s="93"/>
-      <c r="CD8" s="94"/>
-      <c r="CE8" s="83"/>
-      <c r="CF8" s="84"/>
-      <c r="CG8" s="84"/>
-      <c r="CH8" s="85"/>
+      <c r="BM8" s="92"/>
+      <c r="BN8" s="92"/>
+      <c r="BO8" s="92"/>
+      <c r="BP8" s="92"/>
+      <c r="BQ8" s="92"/>
+      <c r="BR8" s="92"/>
+      <c r="BS8" s="92"/>
+      <c r="BT8" s="92"/>
+      <c r="BU8" s="92"/>
+      <c r="BV8" s="92"/>
+      <c r="BW8" s="92"/>
+      <c r="BX8" s="92"/>
+      <c r="BY8" s="92"/>
+      <c r="BZ8" s="92"/>
+      <c r="CA8" s="92"/>
+      <c r="CB8" s="92"/>
+      <c r="CC8" s="92"/>
+      <c r="CD8" s="93"/>
+      <c r="CE8" s="99"/>
+      <c r="CF8" s="100"/>
+      <c r="CG8" s="100"/>
+      <c r="CH8" s="101"/>
     </row>
     <row r="9" spans="1:86" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G9" s="101" t="s">
+      <c r="G9" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="102"/>
-      <c r="W9" s="102"/>
-      <c r="X9" s="102"/>
-      <c r="Y9" s="103"/>
-      <c r="Z9" s="101" t="s">
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="102"/>
-      <c r="AD9" s="102"/>
-      <c r="AE9" s="102"/>
-      <c r="AF9" s="102"/>
-      <c r="AG9" s="102"/>
-      <c r="AH9" s="102"/>
-      <c r="AI9" s="102"/>
-      <c r="AJ9" s="102"/>
-      <c r="AK9" s="102"/>
-      <c r="AL9" s="102"/>
-      <c r="AM9" s="102"/>
-      <c r="AN9" s="102"/>
-      <c r="AO9" s="102"/>
-      <c r="AP9" s="102"/>
-      <c r="AQ9" s="102"/>
-      <c r="AR9" s="103"/>
-      <c r="AS9" s="101" t="s">
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="89"/>
+      <c r="AF9" s="89"/>
+      <c r="AG9" s="89"/>
+      <c r="AH9" s="89"/>
+      <c r="AI9" s="89"/>
+      <c r="AJ9" s="89"/>
+      <c r="AK9" s="89"/>
+      <c r="AL9" s="89"/>
+      <c r="AM9" s="89"/>
+      <c r="AN9" s="89"/>
+      <c r="AO9" s="89"/>
+      <c r="AP9" s="89"/>
+      <c r="AQ9" s="89"/>
+      <c r="AR9" s="90"/>
+      <c r="AS9" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="AT9" s="102"/>
-      <c r="AU9" s="102"/>
-      <c r="AV9" s="102"/>
-      <c r="AW9" s="102"/>
-      <c r="AX9" s="102"/>
-      <c r="AY9" s="102"/>
-      <c r="AZ9" s="102"/>
-      <c r="BA9" s="102"/>
-      <c r="BB9" s="102"/>
-      <c r="BC9" s="102"/>
-      <c r="BD9" s="102"/>
-      <c r="BE9" s="102"/>
-      <c r="BF9" s="102"/>
-      <c r="BG9" s="102"/>
-      <c r="BH9" s="102"/>
-      <c r="BI9" s="102"/>
-      <c r="BJ9" s="102"/>
-      <c r="BK9" s="103"/>
-      <c r="BL9" s="95" t="s">
+      <c r="AT9" s="89"/>
+      <c r="AU9" s="89"/>
+      <c r="AV9" s="89"/>
+      <c r="AW9" s="89"/>
+      <c r="AX9" s="89"/>
+      <c r="AY9" s="89"/>
+      <c r="AZ9" s="89"/>
+      <c r="BA9" s="89"/>
+      <c r="BB9" s="89"/>
+      <c r="BC9" s="89"/>
+      <c r="BD9" s="89"/>
+      <c r="BE9" s="89"/>
+      <c r="BF9" s="89"/>
+      <c r="BG9" s="89"/>
+      <c r="BH9" s="89"/>
+      <c r="BI9" s="89"/>
+      <c r="BJ9" s="89"/>
+      <c r="BK9" s="90"/>
+      <c r="BL9" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="BM9" s="96"/>
-      <c r="BN9" s="96"/>
-      <c r="BO9" s="96"/>
-      <c r="BP9" s="96"/>
-      <c r="BQ9" s="96"/>
-      <c r="BR9" s="96"/>
-      <c r="BS9" s="96"/>
-      <c r="BT9" s="96"/>
-      <c r="BU9" s="96"/>
-      <c r="BV9" s="96"/>
-      <c r="BW9" s="96"/>
-      <c r="BX9" s="96"/>
-      <c r="BY9" s="96"/>
-      <c r="BZ9" s="96"/>
-      <c r="CA9" s="96"/>
-      <c r="CB9" s="96"/>
-      <c r="CC9" s="96"/>
-      <c r="CD9" s="97"/>
-      <c r="CE9" s="83"/>
-      <c r="CF9" s="84"/>
-      <c r="CG9" s="84"/>
-      <c r="CH9" s="85"/>
+      <c r="BM9" s="106"/>
+      <c r="BN9" s="106"/>
+      <c r="BO9" s="106"/>
+      <c r="BP9" s="106"/>
+      <c r="BQ9" s="106"/>
+      <c r="BR9" s="106"/>
+      <c r="BS9" s="106"/>
+      <c r="BT9" s="106"/>
+      <c r="BU9" s="106"/>
+      <c r="BV9" s="106"/>
+      <c r="BW9" s="106"/>
+      <c r="BX9" s="106"/>
+      <c r="BY9" s="106"/>
+      <c r="BZ9" s="106"/>
+      <c r="CA9" s="106"/>
+      <c r="CB9" s="106"/>
+      <c r="CC9" s="106"/>
+      <c r="CD9" s="107"/>
+      <c r="CE9" s="99"/>
+      <c r="CF9" s="100"/>
+      <c r="CG9" s="100"/>
+      <c r="CH9" s="101"/>
     </row>
     <row r="10" spans="1:86" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="104" t="s">
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="104" t="s">
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="T10" s="105"/>
-      <c r="U10" s="105"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="104" t="s">
+      <c r="T10" s="84"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="X10" s="106"/>
+      <c r="X10" s="80"/>
       <c r="Y10" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="Z10" s="104" t="s">
+      <c r="Z10" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="AA10" s="105"/>
-      <c r="AB10" s="105"/>
-      <c r="AC10" s="105"/>
-      <c r="AD10" s="105"/>
-      <c r="AE10" s="106"/>
-      <c r="AF10" s="104" t="s">
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="84"/>
+      <c r="AE10" s="80"/>
+      <c r="AF10" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="AG10" s="105"/>
-      <c r="AH10" s="105"/>
-      <c r="AI10" s="105"/>
-      <c r="AJ10" s="105"/>
-      <c r="AK10" s="106"/>
-      <c r="AL10" s="104" t="s">
+      <c r="AG10" s="84"/>
+      <c r="AH10" s="84"/>
+      <c r="AI10" s="84"/>
+      <c r="AJ10" s="84"/>
+      <c r="AK10" s="80"/>
+      <c r="AL10" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="AM10" s="105"/>
-      <c r="AN10" s="105"/>
-      <c r="AO10" s="106"/>
-      <c r="AP10" s="104" t="s">
+      <c r="AM10" s="84"/>
+      <c r="AN10" s="84"/>
+      <c r="AO10" s="80"/>
+      <c r="AP10" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="AQ10" s="106"/>
+      <c r="AQ10" s="80"/>
       <c r="AR10" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AS10" s="104" t="s">
+      <c r="AS10" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="AT10" s="105"/>
-      <c r="AU10" s="105"/>
-      <c r="AV10" s="105"/>
-      <c r="AW10" s="105"/>
-      <c r="AX10" s="106"/>
-      <c r="AY10" s="104" t="s">
+      <c r="AT10" s="84"/>
+      <c r="AU10" s="84"/>
+      <c r="AV10" s="84"/>
+      <c r="AW10" s="84"/>
+      <c r="AX10" s="80"/>
+      <c r="AY10" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="AZ10" s="105"/>
-      <c r="BA10" s="105"/>
-      <c r="BB10" s="105"/>
-      <c r="BC10" s="105"/>
-      <c r="BD10" s="106"/>
-      <c r="BE10" s="104" t="s">
+      <c r="AZ10" s="84"/>
+      <c r="BA10" s="84"/>
+      <c r="BB10" s="84"/>
+      <c r="BC10" s="84"/>
+      <c r="BD10" s="80"/>
+      <c r="BE10" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="BF10" s="105"/>
-      <c r="BG10" s="105"/>
-      <c r="BH10" s="106"/>
-      <c r="BI10" s="104" t="s">
+      <c r="BF10" s="84"/>
+      <c r="BG10" s="84"/>
+      <c r="BH10" s="80"/>
+      <c r="BI10" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="BJ10" s="106"/>
+      <c r="BJ10" s="80"/>
       <c r="BK10" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="BL10" s="98" t="s">
+      <c r="BL10" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="BM10" s="99"/>
-      <c r="BN10" s="99"/>
-      <c r="BO10" s="99"/>
-      <c r="BP10" s="99"/>
-      <c r="BQ10" s="100"/>
-      <c r="BR10" s="98" t="s">
+      <c r="BM10" s="109"/>
+      <c r="BN10" s="109"/>
+      <c r="BO10" s="109"/>
+      <c r="BP10" s="109"/>
+      <c r="BQ10" s="110"/>
+      <c r="BR10" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="BS10" s="99"/>
-      <c r="BT10" s="99"/>
-      <c r="BU10" s="99"/>
-      <c r="BV10" s="99"/>
-      <c r="BW10" s="100"/>
-      <c r="BX10" s="98" t="s">
+      <c r="BS10" s="109"/>
+      <c r="BT10" s="109"/>
+      <c r="BU10" s="109"/>
+      <c r="BV10" s="109"/>
+      <c r="BW10" s="110"/>
+      <c r="BX10" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="BY10" s="99"/>
-      <c r="BZ10" s="99"/>
-      <c r="CA10" s="100"/>
-      <c r="CB10" s="98" t="s">
+      <c r="BY10" s="109"/>
+      <c r="BZ10" s="109"/>
+      <c r="CA10" s="110"/>
+      <c r="CB10" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="CC10" s="100"/>
+      <c r="CC10" s="110"/>
       <c r="CD10" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="CE10" s="83"/>
-      <c r="CF10" s="84"/>
-      <c r="CG10" s="84"/>
-      <c r="CH10" s="85"/>
+      <c r="CE10" s="99"/>
+      <c r="CF10" s="100"/>
+      <c r="CG10" s="100"/>
+      <c r="CH10" s="101"/>
     </row>
     <row r="11" spans="1:86" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E11" s="63"/>
@@ -3223,10 +3655,10 @@
         <f>IF(CC11+CA11+BW11+BQ11&gt;110%,"error",CC11+CA11+BW11+BQ11)</f>
         <v>0</v>
       </c>
-      <c r="CE11" s="86"/>
-      <c r="CF11" s="87"/>
-      <c r="CG11" s="87"/>
-      <c r="CH11" s="88"/>
+      <c r="CE11" s="102"/>
+      <c r="CF11" s="103"/>
+      <c r="CG11" s="103"/>
+      <c r="CH11" s="104"/>
     </row>
     <row r="12" spans="1:86" ht="93.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="65" t="s">
@@ -12796,10 +13228,1599 @@
         <v>Reprobado</v>
       </c>
     </row>
-    <row r="73" spans="1:86" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:86" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="73"/>
+      <c r="B73" s="74"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="14">
+        <f t="shared" ref="L73:L82" si="23">IF(OR($G$4="MEDIA",$G$4="BASICA - TERCER CICLO"),ROUND((G73*$G$11)+(H73*$H$11)+(I73*$I$11)+(J73*$J$11)+(K73*$K$11),2),ROUND((G73*$G$11)+(H73*$H$11)+(I73*$I$11)+(J73*$J$11)+(K73*$K$11),2))</f>
+        <v>0</v>
+      </c>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="14">
+        <f t="shared" ref="R73:R82" si="24">IF(OR($G$4="MEDIA",$G$4="BASICA - TERCER CICLO"),ROUND((M73*$M$11)+(N73*$N$11)+(O73*$O$11)+(P73*$P$11)+(Q73*$Q$11),2),ROUND((M73*$M$11)+(N73*$N$11)+(O73*$O$11)+(P73*$P$11)+(Q73*$Q$11),2))</f>
+        <v>0</v>
+      </c>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="14">
+        <f t="shared" ref="V73:V82" si="25">IF(OR($G$4="MEDIA",$G$4="BASICA - TERCER CICLO"),ROUND((S73*$S$11)+(T73*$T$11)+(U73*$U$11),2),ROUND((S73*$S$11)+(T73*$T$11)+(U73*$U$11),2))</f>
+        <v>0</v>
+      </c>
+      <c r="W73" s="13"/>
+      <c r="X73" s="15">
+        <f t="shared" ref="X73:X82" si="26">IF(OR($G$4="MEDIA",$G$4="BASICA - TERCER CICLO"),ROUND((W73*$W$11),2),ROUND((W73*$W$11),0))</f>
+        <v>0</v>
+      </c>
+      <c r="Y73" s="58">
+        <f t="shared" ref="Y73:Y82" si="27">IF(OR($G$4="MEDIA",$G$4="BASICA - TERCER CICLO"),ROUND((L73+R73+V73+X73),1),IF($G$4="BASICA",ROUND((L73+R73+V73+X73),0),ROUND((L73+R73+V73+X73),1)))</f>
+        <v>0</v>
+      </c>
+      <c r="Z73" s="13"/>
+      <c r="AA73" s="13"/>
+      <c r="AB73" s="13"/>
+      <c r="AC73" s="13"/>
+      <c r="AD73" s="13"/>
+      <c r="AE73" s="14">
+        <f t="shared" ref="AE73:AE82" si="28">IF(OR($G$4="MEDIA",$G$4="BASICA - TERCER CICLO"),ROUND((Z73*$Z$11)+(AA73*$AA$11)+(AB73*$AB$11)+(AC73*$AC$11)+(AD73*$AD$11),2),ROUND((Z73*$Z$11)+(AA73*$AA$11)+(AB73*$AB$11)+(AC73*$AC$11)+(AD73*$AD$11),2))</f>
+        <v>0</v>
+      </c>
+      <c r="AF73" s="13"/>
+      <c r="AG73" s="13"/>
+      <c r="AH73" s="13"/>
+      <c r="AI73" s="13"/>
+      <c r="AJ73" s="13"/>
+      <c r="AK73" s="14">
+        <f t="shared" ref="AK73:AK82" si="29">IF(OR($G$4="MEDIA",$G$4="BASICA - TERCER CICLO"),ROUND((AF73*$AF$11)+(AG73*$AG$11)+(AH73*$AH$11)+(AI73*$AI$11)+(AJ73*$AJ$11),2),ROUND((AF73*$AF$11)+(AG73*$AG$11)+(AH73*$AH$11)+(AI73*$AI$11)+(AJ73*$AJ$11),2))</f>
+        <v>0</v>
+      </c>
+      <c r="AL73" s="13"/>
+      <c r="AM73" s="13"/>
+      <c r="AN73" s="13"/>
+      <c r="AO73" s="14">
+        <f t="shared" ref="AO73:AO82" si="30">IF(OR($G$4="MEDIA",$G$4="BASICA - TERCER CICLO"),ROUND((AL73*$AL$11)+(AM73*$AM$11)+(AN73*$AN$11),2),ROUND((AL73*$AL$11)+(AM73*$AM$11)+(AN73*$AN$11),2))</f>
+        <v>0</v>
+      </c>
+      <c r="AP73" s="13"/>
+      <c r="AQ73" s="15">
+        <f t="shared" ref="AQ73:AQ82" si="31">IF(OR($G$4="MEDIA",$G$4="BASICA - TERCER CICLO"),ROUND((AP73*$AP$11),2),ROUND((AP73*$AP$11),0))</f>
+        <v>0</v>
+      </c>
+      <c r="AR73" s="58">
+        <f t="shared" ref="AR73:AR82" si="32">IF(OR($G$4="MEDIA",$G$4="BASICA - TERCER CICLO"),ROUND((AE73+AK73+AO73+AQ73),1),IF($G$4="BASICA",ROUND((AE73+AK73+AO73+AQ73),0),ROUND((AE73+AK73+AO73+AQ73),1)))</f>
+        <v>0</v>
+      </c>
+      <c r="AS73" s="13"/>
+      <c r="AT73" s="13"/>
+      <c r="AU73" s="13"/>
+      <c r="AV73" s="13"/>
+      <c r="AW73" s="13"/>
+      <c r="AX73" s="14">
+        <f t="shared" ref="AX73:AX82" si="33">IF(OR($G$4="MEDIA",$G$4="BASICA - TERCER CICLO"),ROUND((AS73*$AS$11)+(AT73*$AT$11)+(AU73*$AU$11)+(AV73*$AV$11)+(AW73*$AW$11),2),ROUND((AS73*$AS$11)+(AT73*$AT$11)+(AU73*$AU$11)+(AV73*$AV$11)+(AW73*$AW$11),2))</f>
+        <v>0</v>
+      </c>
+      <c r="AY73" s="13"/>
+      <c r="AZ73" s="13"/>
+      <c r="BA73" s="13"/>
+      <c r="BB73" s="13"/>
+      <c r="BC73" s="13"/>
+      <c r="BD73" s="14">
+        <f t="shared" ref="BD73:BD82" si="34">IF(OR($G$4="MEDIA",$G$4="BASICA - TERCER CICLO"),ROUND((AY73*$AY$11)+(AZ73*$AZ$11)+(BA73*$BA$11)+(BB73*$BB$11)+(BC73*$BC$11),2),ROUND((AY73*$AY$11)+(AZ73*$AZ$11)+(BA73*$BA$11)+(BB73*$BB$11)+(BC73*$BC$11),2))</f>
+        <v>0</v>
+      </c>
+      <c r="BE73" s="13"/>
+      <c r="BF73" s="13"/>
+      <c r="BG73" s="13"/>
+      <c r="BH73" s="14">
+        <f t="shared" ref="BH73:BH82" si="35">IF(OR($G$4="MEDIA",$G$4="BASICA - TERCER CICLO"),ROUND((BE73*$BE$11)+(BF73*$BF$11)+(BG73*$BG$11),2),ROUND((BE73*$BE$11)+(BF73*$BF$11)+(BG73*$BG$11),2))</f>
+        <v>0</v>
+      </c>
+      <c r="BI73" s="13"/>
+      <c r="BJ73" s="15">
+        <f t="shared" ref="BJ73:BJ82" si="36">IF(OR($G$4="MEDIA",$G$4="BASICA - TERCER CICLO"),ROUND((BI73*$BI$11),2),ROUND((BI73*$BI$11),0))</f>
+        <v>0</v>
+      </c>
+      <c r="BK73" s="58">
+        <f t="shared" ref="BK73:BK82" si="37">IF(OR($G$4="MEDIA",$G$4="BASICA - TERCER CICLO"),ROUND((AX73+BD73+BH73+BJ73),1),IF($G$4="BASICA",ROUND((AX73+BD73+BH73+BJ73),0),ROUND((AX73+BD73+BH73+BJ73),1)))</f>
+        <v>0</v>
+      </c>
+      <c r="BL73" s="13"/>
+      <c r="BM73" s="13"/>
+      <c r="BN73" s="13"/>
+      <c r="BO73" s="13"/>
+      <c r="BP73" s="13"/>
+      <c r="BQ73" s="14">
+        <f t="shared" ref="BQ73:BQ82" si="38">IF(OR($G$4="MEDIA",$G$4="BASICA - TERCER CICLO"),ROUND((BL73*$BL$11)+(BM73*$BM$11)+(BN73*$BN$11)+(BO73*$BO$11)+(BP73*$BP$11),2),ROUND((BL73*$BL$11)+(BM73*$BM$11)+(BN73*$BN$11)+(BO73*$BO$11)+(BP73*$BP$11),2))</f>
+        <v>0</v>
+      </c>
+      <c r="BR73" s="13"/>
+      <c r="BS73" s="13"/>
+      <c r="BT73" s="13"/>
+      <c r="BU73" s="13"/>
+      <c r="BV73" s="13"/>
+      <c r="BW73" s="14">
+        <f t="shared" ref="BW73:BW82" si="39">IF(OR($G$4="MEDIA",$G$4="BASICA - TERCER CICLO"),ROUND((BR73*$BR$11)+(BS73*$BS$11)+(BT73*$BT$11)+(BU73*$BU$11)+(BV73*$BV$11),2),ROUND((BR73*$BR$11)+(BS73*$BS$11)+(BT73*$BT$11)+(BU73*$BU$11)+(BV73*$BP$11),2))</f>
+        <v>0</v>
+      </c>
+      <c r="BX73" s="13"/>
+      <c r="BY73" s="13"/>
+      <c r="BZ73" s="13"/>
+      <c r="CA73" s="14">
+        <f t="shared" ref="CA73:CA82" si="40">IF(OR($G$4="MEDIA",$G$4="BASICA - TERCER CICLO"),ROUND((BX73*$BX$11)+(BY73*$BY$11)+(BZ73*$BZ$11),2),ROUND((BX73*$BX$11)+(BY73*$BY$11)+(BZ73*$BZ$11),2))</f>
+        <v>0</v>
+      </c>
+      <c r="CB73" s="13"/>
+      <c r="CC73" s="15">
+        <f t="shared" ref="CC73:CC82" si="41">IF(OR($G$4="MEDIA",$G$4="BASICA - TERCER CICLO"),ROUND((CB73*$BI$11),2),ROUND((CB73*$BI$11),0))</f>
+        <v>0</v>
+      </c>
+      <c r="CD73" s="58">
+        <f t="shared" ref="CD73:CD82" si="42">IF(OR($G$4="MEDIA",$G$4="BASICA - TERCER CICLO"),ROUND((BQ73+BW73+CA73+CC73),1),IF($G$4="BASICA",ROUND((BQ73+BW73+CA73+CC73),0),ROUND((BQ73+BW73+CA73+CC73),1)))</f>
+        <v>0</v>
+      </c>
+      <c r="CE73" s="58">
+        <f t="shared" ref="CE73:CE82" si="43">IF($G$4 = "MEDIA",ROUND(((Y73+AR73+BK73+CD73)/4),0),ROUND(((Y73+AR73+BK73)/3),0))</f>
+        <v>0</v>
+      </c>
+      <c r="CF73" s="22"/>
+      <c r="CG73" s="58">
+        <f>IF(AND(CE73&lt;5,$G$4="BASICA"),ROUND((CE73+CF73)/2,0),IF(AND(CE73&lt;6,$G$4="MEDIA"),ROUND((CE73+CF73)/2,0),CE73))</f>
+        <v>0</v>
+      </c>
+      <c r="CH73" s="17" t="str">
+        <f t="shared" ref="CH73:CH82" si="44">IF($G$4="MEDIA",IF(CG73&gt;=6,"Aprobado","Reprobado"),IF(CG73&gt;=5,"Aprobado","Reprobado"))</f>
+        <v>Reprobado</v>
+      </c>
+    </row>
+    <row r="74" spans="1:86" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="73"/>
+      <c r="B74" s="74"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
+      <c r="U74" s="13"/>
+      <c r="V74" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W74" s="13"/>
+      <c r="X74" s="15">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y74" s="58">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z74" s="13"/>
+      <c r="AA74" s="13"/>
+      <c r="AB74" s="13"/>
+      <c r="AC74" s="13"/>
+      <c r="AD74" s="13"/>
+      <c r="AE74" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF74" s="13"/>
+      <c r="AG74" s="13"/>
+      <c r="AH74" s="13"/>
+      <c r="AI74" s="13"/>
+      <c r="AJ74" s="13"/>
+      <c r="AK74" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AL74" s="13"/>
+      <c r="AM74" s="13"/>
+      <c r="AN74" s="13"/>
+      <c r="AO74" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AP74" s="13"/>
+      <c r="AQ74" s="15">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AR74" s="58">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AS74" s="13"/>
+      <c r="AT74" s="13"/>
+      <c r="AU74" s="13"/>
+      <c r="AV74" s="13"/>
+      <c r="AW74" s="13"/>
+      <c r="AX74" s="14">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AY74" s="13"/>
+      <c r="AZ74" s="13"/>
+      <c r="BA74" s="13"/>
+      <c r="BB74" s="13"/>
+      <c r="BC74" s="13"/>
+      <c r="BD74" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BE74" s="13"/>
+      <c r="BF74" s="13"/>
+      <c r="BG74" s="13"/>
+      <c r="BH74" s="14">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BI74" s="13"/>
+      <c r="BJ74" s="15">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK74" s="58">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL74" s="13"/>
+      <c r="BM74" s="13"/>
+      <c r="BN74" s="13"/>
+      <c r="BO74" s="13"/>
+      <c r="BP74" s="13"/>
+      <c r="BQ74" s="14">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BR74" s="13"/>
+      <c r="BS74" s="13"/>
+      <c r="BT74" s="13"/>
+      <c r="BU74" s="13"/>
+      <c r="BV74" s="13"/>
+      <c r="BW74" s="14">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BX74" s="13"/>
+      <c r="BY74" s="13"/>
+      <c r="BZ74" s="13"/>
+      <c r="CA74" s="14">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="CB74" s="13"/>
+      <c r="CC74" s="15">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="CD74" s="58">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="CE74" s="58">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="CF74" s="22"/>
+      <c r="CG74" s="58">
+        <f>IF(AND(CE74&lt;5,$G$4="BASICA"),ROUND((CE74+CF74)/2,0),IF(AND(CE74&lt;6,$G$4="MEDIA"),ROUND((CE74+CF74)/2,0),CE74))</f>
+        <v>0</v>
+      </c>
+      <c r="CH74" s="17" t="str">
+        <f t="shared" si="44"/>
+        <v>Reprobado</v>
+      </c>
+    </row>
+    <row r="75" spans="1:86" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="73"/>
+      <c r="B75" s="74"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W75" s="13"/>
+      <c r="X75" s="15">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y75" s="58">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="13"/>
+      <c r="AA75" s="13"/>
+      <c r="AB75" s="13"/>
+      <c r="AC75" s="13"/>
+      <c r="AD75" s="13"/>
+      <c r="AE75" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF75" s="13"/>
+      <c r="AG75" s="13"/>
+      <c r="AH75" s="13"/>
+      <c r="AI75" s="13"/>
+      <c r="AJ75" s="13"/>
+      <c r="AK75" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AL75" s="13"/>
+      <c r="AM75" s="13"/>
+      <c r="AN75" s="13"/>
+      <c r="AO75" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AP75" s="13"/>
+      <c r="AQ75" s="15">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AR75" s="58">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AS75" s="13"/>
+      <c r="AT75" s="13"/>
+      <c r="AU75" s="13"/>
+      <c r="AV75" s="13"/>
+      <c r="AW75" s="13"/>
+      <c r="AX75" s="14">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AY75" s="13"/>
+      <c r="AZ75" s="13"/>
+      <c r="BA75" s="13"/>
+      <c r="BB75" s="13"/>
+      <c r="BC75" s="13"/>
+      <c r="BD75" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BE75" s="13"/>
+      <c r="BF75" s="13"/>
+      <c r="BG75" s="13"/>
+      <c r="BH75" s="14">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BI75" s="13"/>
+      <c r="BJ75" s="15">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK75" s="58">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL75" s="13"/>
+      <c r="BM75" s="13"/>
+      <c r="BN75" s="13"/>
+      <c r="BO75" s="13"/>
+      <c r="BP75" s="13"/>
+      <c r="BQ75" s="14">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BR75" s="13"/>
+      <c r="BS75" s="13"/>
+      <c r="BT75" s="13"/>
+      <c r="BU75" s="13"/>
+      <c r="BV75" s="13"/>
+      <c r="BW75" s="14">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BX75" s="13"/>
+      <c r="BY75" s="13"/>
+      <c r="BZ75" s="13"/>
+      <c r="CA75" s="14">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="CB75" s="13"/>
+      <c r="CC75" s="15">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="CD75" s="58">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="CE75" s="58">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="CF75" s="22"/>
+      <c r="CG75" s="58">
+        <f>IF(AND(CE75&lt;5,$G$4="BASICA"),ROUND((CE75+CF75)/2,0),IF(AND(CE75&lt;6,$G$4="MEDIA"),ROUND((CE75+CF75)/2,0),CE75))</f>
+        <v>0</v>
+      </c>
+      <c r="CH75" s="17" t="str">
+        <f t="shared" si="44"/>
+        <v>Reprobado</v>
+      </c>
+    </row>
+    <row r="76" spans="1:86" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="73"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S76" s="13"/>
+      <c r="T76" s="13"/>
+      <c r="U76" s="13"/>
+      <c r="V76" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W76" s="13"/>
+      <c r="X76" s="15">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y76" s="58">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z76" s="13"/>
+      <c r="AA76" s="13"/>
+      <c r="AB76" s="13"/>
+      <c r="AC76" s="13"/>
+      <c r="AD76" s="13"/>
+      <c r="AE76" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF76" s="13"/>
+      <c r="AG76" s="13"/>
+      <c r="AH76" s="13"/>
+      <c r="AI76" s="13"/>
+      <c r="AJ76" s="13"/>
+      <c r="AK76" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AL76" s="13"/>
+      <c r="AM76" s="13"/>
+      <c r="AN76" s="13"/>
+      <c r="AO76" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AP76" s="13"/>
+      <c r="AQ76" s="15">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AR76" s="58">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AS76" s="13"/>
+      <c r="AT76" s="13"/>
+      <c r="AU76" s="13"/>
+      <c r="AV76" s="13"/>
+      <c r="AW76" s="13"/>
+      <c r="AX76" s="14">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AY76" s="13"/>
+      <c r="AZ76" s="13"/>
+      <c r="BA76" s="13"/>
+      <c r="BB76" s="13"/>
+      <c r="BC76" s="13"/>
+      <c r="BD76" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BE76" s="13"/>
+      <c r="BF76" s="13"/>
+      <c r="BG76" s="13"/>
+      <c r="BH76" s="14">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BI76" s="13"/>
+      <c r="BJ76" s="15">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK76" s="58">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL76" s="13"/>
+      <c r="BM76" s="13"/>
+      <c r="BN76" s="13"/>
+      <c r="BO76" s="13"/>
+      <c r="BP76" s="13"/>
+      <c r="BQ76" s="14">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BR76" s="13"/>
+      <c r="BS76" s="13"/>
+      <c r="BT76" s="13"/>
+      <c r="BU76" s="13"/>
+      <c r="BV76" s="13"/>
+      <c r="BW76" s="14">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BX76" s="13"/>
+      <c r="BY76" s="13"/>
+      <c r="BZ76" s="13"/>
+      <c r="CA76" s="14">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="CB76" s="13"/>
+      <c r="CC76" s="15">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="CD76" s="58">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="CE76" s="58">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="CF76" s="22"/>
+      <c r="CG76" s="58">
+        <f>IF(AND(CE76&lt;5,$G$4="BASICA"),ROUND((CE76+CF76)/2,0),IF(AND(CE76&lt;6,$G$4="MEDIA"),ROUND((CE76+CF76)/2,0),CE76))</f>
+        <v>0</v>
+      </c>
+      <c r="CH76" s="17" t="str">
+        <f t="shared" si="44"/>
+        <v>Reprobado</v>
+      </c>
+    </row>
+    <row r="77" spans="1:86" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="73"/>
+      <c r="B77" s="74"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="75"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S77" s="13"/>
+      <c r="T77" s="13"/>
+      <c r="U77" s="13"/>
+      <c r="V77" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W77" s="13"/>
+      <c r="X77" s="15">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y77" s="58">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z77" s="13"/>
+      <c r="AA77" s="13"/>
+      <c r="AB77" s="13"/>
+      <c r="AC77" s="13"/>
+      <c r="AD77" s="13"/>
+      <c r="AE77" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF77" s="13"/>
+      <c r="AG77" s="13"/>
+      <c r="AH77" s="13"/>
+      <c r="AI77" s="13"/>
+      <c r="AJ77" s="13"/>
+      <c r="AK77" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AL77" s="13"/>
+      <c r="AM77" s="13"/>
+      <c r="AN77" s="13"/>
+      <c r="AO77" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AP77" s="13"/>
+      <c r="AQ77" s="15">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AR77" s="58">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AS77" s="13"/>
+      <c r="AT77" s="13"/>
+      <c r="AU77" s="13"/>
+      <c r="AV77" s="13"/>
+      <c r="AW77" s="13"/>
+      <c r="AX77" s="14">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AY77" s="13"/>
+      <c r="AZ77" s="13"/>
+      <c r="BA77" s="13"/>
+      <c r="BB77" s="13"/>
+      <c r="BC77" s="13"/>
+      <c r="BD77" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BE77" s="13"/>
+      <c r="BF77" s="13"/>
+      <c r="BG77" s="13"/>
+      <c r="BH77" s="14">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BI77" s="13"/>
+      <c r="BJ77" s="15">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK77" s="58">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL77" s="13"/>
+      <c r="BM77" s="13"/>
+      <c r="BN77" s="13"/>
+      <c r="BO77" s="13"/>
+      <c r="BP77" s="13"/>
+      <c r="BQ77" s="14">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BR77" s="13"/>
+      <c r="BS77" s="13"/>
+      <c r="BT77" s="13"/>
+      <c r="BU77" s="13"/>
+      <c r="BV77" s="13"/>
+      <c r="BW77" s="14">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BX77" s="13"/>
+      <c r="BY77" s="13"/>
+      <c r="BZ77" s="13"/>
+      <c r="CA77" s="14">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="CB77" s="13"/>
+      <c r="CC77" s="15">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="CD77" s="58">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="CE77" s="58">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="CF77" s="22"/>
+      <c r="CG77" s="58">
+        <f>IF(AND(CE77&lt;5,$G$4="BASICA"),ROUND((CE77+CF77)/2,0),IF(AND(CE77&lt;6,$G$4="MEDIA"),ROUND((CE77+CF77)/2,0),CE77))</f>
+        <v>0</v>
+      </c>
+      <c r="CH77" s="17" t="str">
+        <f t="shared" si="44"/>
+        <v>Reprobado</v>
+      </c>
+    </row>
+    <row r="78" spans="1:86" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="73"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="75"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S78" s="13"/>
+      <c r="T78" s="13"/>
+      <c r="U78" s="13"/>
+      <c r="V78" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W78" s="13"/>
+      <c r="X78" s="15">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y78" s="58">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z78" s="13"/>
+      <c r="AA78" s="13"/>
+      <c r="AB78" s="13"/>
+      <c r="AC78" s="13"/>
+      <c r="AD78" s="13"/>
+      <c r="AE78" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF78" s="13"/>
+      <c r="AG78" s="13"/>
+      <c r="AH78" s="13"/>
+      <c r="AI78" s="13"/>
+      <c r="AJ78" s="13"/>
+      <c r="AK78" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AL78" s="13"/>
+      <c r="AM78" s="13"/>
+      <c r="AN78" s="13"/>
+      <c r="AO78" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AP78" s="13"/>
+      <c r="AQ78" s="15">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AR78" s="58">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AS78" s="13"/>
+      <c r="AT78" s="13"/>
+      <c r="AU78" s="13"/>
+      <c r="AV78" s="13"/>
+      <c r="AW78" s="13"/>
+      <c r="AX78" s="14">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AY78" s="13"/>
+      <c r="AZ78" s="13"/>
+      <c r="BA78" s="13"/>
+      <c r="BB78" s="13"/>
+      <c r="BC78" s="13"/>
+      <c r="BD78" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BE78" s="13"/>
+      <c r="BF78" s="13"/>
+      <c r="BG78" s="13"/>
+      <c r="BH78" s="14">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BI78" s="13"/>
+      <c r="BJ78" s="15">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK78" s="58">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL78" s="13"/>
+      <c r="BM78" s="13"/>
+      <c r="BN78" s="13"/>
+      <c r="BO78" s="13"/>
+      <c r="BP78" s="13"/>
+      <c r="BQ78" s="14">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BR78" s="13"/>
+      <c r="BS78" s="13"/>
+      <c r="BT78" s="13"/>
+      <c r="BU78" s="13"/>
+      <c r="BV78" s="13"/>
+      <c r="BW78" s="14">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BX78" s="13"/>
+      <c r="BY78" s="13"/>
+      <c r="BZ78" s="13"/>
+      <c r="CA78" s="14">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="CB78" s="13"/>
+      <c r="CC78" s="15">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="CD78" s="58">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="CE78" s="58">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="CF78" s="22"/>
+      <c r="CG78" s="58">
+        <f>IF(AND(CE78&lt;5,$G$4="BASICA"),ROUND((CE78+CF78)/2,0),IF(AND(CE78&lt;6,$G$4="MEDIA"),ROUND((CE78+CF78)/2,0),CE78))</f>
+        <v>0</v>
+      </c>
+      <c r="CH78" s="17" t="str">
+        <f t="shared" si="44"/>
+        <v>Reprobado</v>
+      </c>
+    </row>
+    <row r="79" spans="1:86" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="73"/>
+      <c r="B79" s="74"/>
+      <c r="C79" s="74"/>
+      <c r="D79" s="74"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="75"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S79" s="13"/>
+      <c r="T79" s="13"/>
+      <c r="U79" s="13"/>
+      <c r="V79" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W79" s="13"/>
+      <c r="X79" s="15">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y79" s="58">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z79" s="13"/>
+      <c r="AA79" s="13"/>
+      <c r="AB79" s="13"/>
+      <c r="AC79" s="13"/>
+      <c r="AD79" s="13"/>
+      <c r="AE79" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF79" s="13"/>
+      <c r="AG79" s="13"/>
+      <c r="AH79" s="13"/>
+      <c r="AI79" s="13"/>
+      <c r="AJ79" s="13"/>
+      <c r="AK79" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AL79" s="13"/>
+      <c r="AM79" s="13"/>
+      <c r="AN79" s="13"/>
+      <c r="AO79" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AP79" s="13"/>
+      <c r="AQ79" s="15">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AR79" s="58">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AS79" s="13"/>
+      <c r="AT79" s="13"/>
+      <c r="AU79" s="13"/>
+      <c r="AV79" s="13"/>
+      <c r="AW79" s="13"/>
+      <c r="AX79" s="14">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AY79" s="13"/>
+      <c r="AZ79" s="13"/>
+      <c r="BA79" s="13"/>
+      <c r="BB79" s="13"/>
+      <c r="BC79" s="13"/>
+      <c r="BD79" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BE79" s="13"/>
+      <c r="BF79" s="13"/>
+      <c r="BG79" s="13"/>
+      <c r="BH79" s="14">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BI79" s="13"/>
+      <c r="BJ79" s="15">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK79" s="58">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL79" s="13"/>
+      <c r="BM79" s="13"/>
+      <c r="BN79" s="13"/>
+      <c r="BO79" s="13"/>
+      <c r="BP79" s="13"/>
+      <c r="BQ79" s="14">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BR79" s="13"/>
+      <c r="BS79" s="13"/>
+      <c r="BT79" s="13"/>
+      <c r="BU79" s="13"/>
+      <c r="BV79" s="13"/>
+      <c r="BW79" s="14">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BX79" s="13"/>
+      <c r="BY79" s="13"/>
+      <c r="BZ79" s="13"/>
+      <c r="CA79" s="14">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="CB79" s="13"/>
+      <c r="CC79" s="15">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="CD79" s="58">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="CE79" s="58">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="CF79" s="22"/>
+      <c r="CG79" s="58">
+        <f>IF(AND(CE79&lt;5,$G$4="BASICA"),ROUND((CE79+CF79)/2,0),IF(AND(CE79&lt;6,$G$4="MEDIA"),ROUND((CE79+CF79)/2,0),CE79))</f>
+        <v>0</v>
+      </c>
+      <c r="CH79" s="17" t="str">
+        <f t="shared" si="44"/>
+        <v>Reprobado</v>
+      </c>
+    </row>
+    <row r="80" spans="1:86" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="73"/>
+      <c r="B80" s="74"/>
+      <c r="C80" s="74"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="75"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S80" s="13"/>
+      <c r="T80" s="13"/>
+      <c r="U80" s="13"/>
+      <c r="V80" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W80" s="13"/>
+      <c r="X80" s="15">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y80" s="58">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z80" s="13"/>
+      <c r="AA80" s="13"/>
+      <c r="AB80" s="13"/>
+      <c r="AC80" s="13"/>
+      <c r="AD80" s="13"/>
+      <c r="AE80" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF80" s="13"/>
+      <c r="AG80" s="13"/>
+      <c r="AH80" s="13"/>
+      <c r="AI80" s="13"/>
+      <c r="AJ80" s="13"/>
+      <c r="AK80" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AL80" s="13"/>
+      <c r="AM80" s="13"/>
+      <c r="AN80" s="13"/>
+      <c r="AO80" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AP80" s="13"/>
+      <c r="AQ80" s="15">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AR80" s="58">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AS80" s="13"/>
+      <c r="AT80" s="13"/>
+      <c r="AU80" s="13"/>
+      <c r="AV80" s="13"/>
+      <c r="AW80" s="13"/>
+      <c r="AX80" s="14">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AY80" s="13"/>
+      <c r="AZ80" s="13"/>
+      <c r="BA80" s="13"/>
+      <c r="BB80" s="13"/>
+      <c r="BC80" s="13"/>
+      <c r="BD80" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BE80" s="13"/>
+      <c r="BF80" s="13"/>
+      <c r="BG80" s="13"/>
+      <c r="BH80" s="14">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BI80" s="13"/>
+      <c r="BJ80" s="15">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK80" s="58">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL80" s="13"/>
+      <c r="BM80" s="13"/>
+      <c r="BN80" s="13"/>
+      <c r="BO80" s="13"/>
+      <c r="BP80" s="13"/>
+      <c r="BQ80" s="14">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BR80" s="13"/>
+      <c r="BS80" s="13"/>
+      <c r="BT80" s="13"/>
+      <c r="BU80" s="13"/>
+      <c r="BV80" s="13"/>
+      <c r="BW80" s="14">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BX80" s="13"/>
+      <c r="BY80" s="13"/>
+      <c r="BZ80" s="13"/>
+      <c r="CA80" s="14">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="CB80" s="13"/>
+      <c r="CC80" s="15">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="CD80" s="58">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="CE80" s="58">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="CF80" s="22"/>
+      <c r="CG80" s="58">
+        <f>IF(AND(CE80&lt;5,$G$4="BASICA"),ROUND((CE80+CF80)/2,0),IF(AND(CE80&lt;6,$G$4="MEDIA"),ROUND((CE80+CF80)/2,0),CE80))</f>
+        <v>0</v>
+      </c>
+      <c r="CH80" s="17" t="str">
+        <f t="shared" si="44"/>
+        <v>Reprobado</v>
+      </c>
+    </row>
+    <row r="81" spans="1:86" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="73"/>
+      <c r="B81" s="74"/>
+      <c r="C81" s="74"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="75"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S81" s="13"/>
+      <c r="T81" s="13"/>
+      <c r="U81" s="13"/>
+      <c r="V81" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W81" s="13"/>
+      <c r="X81" s="15">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y81" s="58">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z81" s="13"/>
+      <c r="AA81" s="13"/>
+      <c r="AB81" s="13"/>
+      <c r="AC81" s="13"/>
+      <c r="AD81" s="13"/>
+      <c r="AE81" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF81" s="13"/>
+      <c r="AG81" s="13"/>
+      <c r="AH81" s="13"/>
+      <c r="AI81" s="13"/>
+      <c r="AJ81" s="13"/>
+      <c r="AK81" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AL81" s="13"/>
+      <c r="AM81" s="13"/>
+      <c r="AN81" s="13"/>
+      <c r="AO81" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AP81" s="13"/>
+      <c r="AQ81" s="15">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AR81" s="58">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AS81" s="13"/>
+      <c r="AT81" s="13"/>
+      <c r="AU81" s="13"/>
+      <c r="AV81" s="13"/>
+      <c r="AW81" s="13"/>
+      <c r="AX81" s="14">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AY81" s="13"/>
+      <c r="AZ81" s="13"/>
+      <c r="BA81" s="13"/>
+      <c r="BB81" s="13"/>
+      <c r="BC81" s="13"/>
+      <c r="BD81" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BE81" s="13"/>
+      <c r="BF81" s="13"/>
+      <c r="BG81" s="13"/>
+      <c r="BH81" s="14">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BI81" s="13"/>
+      <c r="BJ81" s="15">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK81" s="58">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL81" s="13"/>
+      <c r="BM81" s="13"/>
+      <c r="BN81" s="13"/>
+      <c r="BO81" s="13"/>
+      <c r="BP81" s="13"/>
+      <c r="BQ81" s="14">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BR81" s="13"/>
+      <c r="BS81" s="13"/>
+      <c r="BT81" s="13"/>
+      <c r="BU81" s="13"/>
+      <c r="BV81" s="13"/>
+      <c r="BW81" s="14">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BX81" s="13"/>
+      <c r="BY81" s="13"/>
+      <c r="BZ81" s="13"/>
+      <c r="CA81" s="14">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="CB81" s="13"/>
+      <c r="CC81" s="15">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="CD81" s="58">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="CE81" s="58">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="CF81" s="22"/>
+      <c r="CG81" s="58">
+        <f>IF(AND(CE81&lt;5,$G$4="BASICA"),ROUND((CE81+CF81)/2,0),IF(AND(CE81&lt;6,$G$4="MEDIA"),ROUND((CE81+CF81)/2,0),CE81))</f>
+        <v>0</v>
+      </c>
+      <c r="CH81" s="17" t="str">
+        <f t="shared" si="44"/>
+        <v>Reprobado</v>
+      </c>
+    </row>
+    <row r="82" spans="1:86" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="73"/>
+      <c r="B82" s="74"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S82" s="13"/>
+      <c r="T82" s="13"/>
+      <c r="U82" s="13"/>
+      <c r="V82" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W82" s="13"/>
+      <c r="X82" s="15">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y82" s="58">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Z82" s="13"/>
+      <c r="AA82" s="13"/>
+      <c r="AB82" s="13"/>
+      <c r="AC82" s="13"/>
+      <c r="AD82" s="13"/>
+      <c r="AE82" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AF82" s="13"/>
+      <c r="AG82" s="13"/>
+      <c r="AH82" s="13"/>
+      <c r="AI82" s="13"/>
+      <c r="AJ82" s="13"/>
+      <c r="AK82" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AL82" s="13"/>
+      <c r="AM82" s="13"/>
+      <c r="AN82" s="13"/>
+      <c r="AO82" s="14">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AP82" s="13"/>
+      <c r="AQ82" s="15">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AR82" s="58">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AS82" s="13"/>
+      <c r="AT82" s="13"/>
+      <c r="AU82" s="13"/>
+      <c r="AV82" s="13"/>
+      <c r="AW82" s="13"/>
+      <c r="AX82" s="14">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AY82" s="13"/>
+      <c r="AZ82" s="13"/>
+      <c r="BA82" s="13"/>
+      <c r="BB82" s="13"/>
+      <c r="BC82" s="13"/>
+      <c r="BD82" s="14">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BE82" s="13"/>
+      <c r="BF82" s="13"/>
+      <c r="BG82" s="13"/>
+      <c r="BH82" s="14">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BI82" s="13"/>
+      <c r="BJ82" s="15">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK82" s="58">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL82" s="13"/>
+      <c r="BM82" s="13"/>
+      <c r="BN82" s="13"/>
+      <c r="BO82" s="13"/>
+      <c r="BP82" s="13"/>
+      <c r="BQ82" s="14">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BR82" s="13"/>
+      <c r="BS82" s="13"/>
+      <c r="BT82" s="13"/>
+      <c r="BU82" s="13"/>
+      <c r="BV82" s="13"/>
+      <c r="BW82" s="14">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BX82" s="13"/>
+      <c r="BY82" s="13"/>
+      <c r="BZ82" s="13"/>
+      <c r="CA82" s="14">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="CB82" s="13"/>
+      <c r="CC82" s="15">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="CD82" s="58">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="CE82" s="58">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="CF82" s="22"/>
+      <c r="CG82" s="58">
+        <f>IF(AND(CE82&lt;5,$G$4="BASICA"),ROUND((CE82+CF82)/2,0),IF(AND(CE82&lt;6,$G$4="MEDIA"),ROUND((CE82+CF82)/2,0),CE82))</f>
+        <v>0</v>
+      </c>
+      <c r="CH82" s="17" t="str">
+        <f t="shared" si="44"/>
+        <v>Reprobado</v>
+      </c>
+    </row>
+    <row r="83" spans="1:86" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="35">
+    <mergeCell ref="AF10:AK10"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="AS6:AX6"/>
+    <mergeCell ref="AY10:BD10"/>
+    <mergeCell ref="BE10:BH10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="CE7:CH11"/>
+    <mergeCell ref="BL7:CD7"/>
+    <mergeCell ref="BL8:CD8"/>
+    <mergeCell ref="BL9:CD9"/>
+    <mergeCell ref="BL10:BQ10"/>
+    <mergeCell ref="BR10:BW10"/>
+    <mergeCell ref="BX10:CA10"/>
+    <mergeCell ref="CB10:CC10"/>
+    <mergeCell ref="AS7:BK7"/>
+    <mergeCell ref="AS8:BK8"/>
+    <mergeCell ref="AS9:BK9"/>
+    <mergeCell ref="AS10:AX10"/>
     <mergeCell ref="BI10:BJ10"/>
     <mergeCell ref="AP10:AQ10"/>
     <mergeCell ref="Z6:AE6"/>
@@ -12816,152 +14837,133 @@
     <mergeCell ref="Z7:AR7"/>
     <mergeCell ref="Z8:AR8"/>
     <mergeCell ref="Z9:AR9"/>
-    <mergeCell ref="AS6:AX6"/>
-    <mergeCell ref="AY10:BD10"/>
-    <mergeCell ref="BE10:BH10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="CE7:CH11"/>
-    <mergeCell ref="BL7:CD7"/>
-    <mergeCell ref="BL8:CD8"/>
-    <mergeCell ref="BL9:CD9"/>
-    <mergeCell ref="BL10:BQ10"/>
-    <mergeCell ref="BR10:BW10"/>
-    <mergeCell ref="BX10:CA10"/>
-    <mergeCell ref="CB10:CC10"/>
-    <mergeCell ref="AS7:BK7"/>
-    <mergeCell ref="AS8:BK8"/>
-    <mergeCell ref="AS9:BK9"/>
-    <mergeCell ref="AS10:AX10"/>
-    <mergeCell ref="AF10:AK10"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="G6:L6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="CH13:CH72">
-    <cfRule type="cellIs" dxfId="64" priority="42" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="CH13:CH82">
+    <cfRule type="cellIs" dxfId="118" priority="42" stopIfTrue="1" operator="equal">
       <formula>"Reprobado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CF13:CF72">
+  <conditionalFormatting sqref="CF13:CF82">
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="between">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG13:CG72">
-    <cfRule type="cellIs" dxfId="63" priority="27" operator="between">
+  <conditionalFormatting sqref="CG13:CG82">
+    <cfRule type="cellIs" dxfId="117" priority="27" operator="between">
       <formula>7</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="116" priority="28" operator="between">
       <formula>5</formula>
       <formula>6.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="29" operator="between">
+    <cfRule type="cellIs" dxfId="115" priority="29" operator="between">
       <formula>0</formula>
       <formula>4.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE13:CE72">
-    <cfRule type="cellIs" dxfId="60" priority="24" operator="between">
+  <conditionalFormatting sqref="CE13:CE82">
+    <cfRule type="cellIs" dxfId="114" priority="24" operator="between">
       <formula>7</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="113" priority="25" operator="between">
       <formula>5</formula>
       <formula>6.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="112" priority="26" operator="between">
       <formula>0</formula>
       <formula>4.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y13:Y72">
-    <cfRule type="cellIs" dxfId="57" priority="15" operator="between">
+  <conditionalFormatting sqref="Y13:Y82">
+    <cfRule type="cellIs" dxfId="111" priority="15" operator="between">
       <formula>7</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="110" priority="16" operator="between">
       <formula>5</formula>
       <formula>6.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="109" priority="17" operator="between">
       <formula>0</formula>
       <formula>4.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11">
-    <cfRule type="cellIs" dxfId="54" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="14" operator="greaterThan">
       <formula>1.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR11">
-    <cfRule type="cellIs" dxfId="53" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="13" operator="greaterThan">
       <formula>1.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK11">
-    <cfRule type="cellIs" dxfId="52" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="12" operator="greaterThan">
       <formula>1.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR13:AR72">
-    <cfRule type="cellIs" dxfId="51" priority="9" operator="between">
+  <conditionalFormatting sqref="AR13:AR82">
+    <cfRule type="cellIs" dxfId="105" priority="9" operator="between">
       <formula>7</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="104" priority="10" operator="between">
       <formula>5</formula>
       <formula>6.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="103" priority="11" operator="between">
       <formula>0</formula>
       <formula>4.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK13:BK72">
-    <cfRule type="cellIs" dxfId="48" priority="6" operator="between">
+  <conditionalFormatting sqref="BK13:BK82">
+    <cfRule type="cellIs" dxfId="102" priority="6" operator="between">
       <formula>7</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="101" priority="7" operator="between">
       <formula>5</formula>
       <formula>6.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="100" priority="8" operator="between">
       <formula>0</formula>
       <formula>4.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD13:CD72">
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="between">
+  <conditionalFormatting sqref="CD13:CD82">
+    <cfRule type="cellIs" dxfId="99" priority="3" operator="between">
       <formula>7</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="98" priority="4" operator="between">
       <formula>5</formula>
       <formula>6.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="97" priority="5" operator="between">
       <formula>0</formula>
       <formula>4.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD11">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="1" operator="greaterThan">
       <formula>1.1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valores" error="Solo numeros. entre 0.01 a 10." sqref="CF13:CF72" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valores" error="Solo numeros. entre 0.01 a 10." sqref="CF13:CF82" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor" error="Solo numeros entre 0.01 a 10." sqref="CB13:CB72 BX13:BZ72 BL13:BP72 AS13:AW72 AY13:BC72 BE13:BG72 BI13:BI72 Z13:AD72 AF13:AJ72 AL13:AN72 AP13:AP72 G13:K72 M13:Q72 S13:U72 W13:W72" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor" error="Solo numeros entre 0.01 a 10." sqref="CB13:CB82 BX13:BZ82 BL13:BP82 AS13:AW82 AY13:BC82 BE13:BG82 BI13:BI82 Z13:AD82 AF13:AJ82 AL13:AN82 AP13:AP82 G13:K82 M13:Q82 S13:U82 W13:W82" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor." error="Solo numeros entre 0.01 a 10." sqref="BR13:BV72" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor." error="Solo numeros entre 0.01 a 10." sqref="BR13:BV82" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -12975,10 +14977,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z73"/>
+  <dimension ref="A1:Z82"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12991,13 +14993,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="A1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13022,129 +15024,129 @@
         <v>10</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="G5" s="111" t="s">
+      <c r="G5" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="111"/>
+      <c r="H5" s="124"/>
       <c r="I5" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="112" t="s">
+      <c r="J5" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="112"/>
+      <c r="K5" s="125"/>
     </row>
     <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="113" t="s">
+      <c r="J6" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="113"/>
+      <c r="K6" s="126"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
       <c r="I7" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="114" t="s">
+      <c r="J7" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="114"/>
+      <c r="K7" s="127"/>
     </row>
     <row r="8" spans="1:26" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="115"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="116"/>
-      <c r="Z8" s="117"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="111"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="111"/>
+      <c r="Y8" s="111"/>
+      <c r="Z8" s="112"/>
     </row>
     <row r="9" spans="1:26" ht="24" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="G9" s="121">
+      <c r="G9" s="113">
         <v>1</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="124">
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="120">
         <v>2</v>
       </c>
-      <c r="M9" s="122"/>
-      <c r="N9" s="122"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="121">
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="113">
         <v>3</v>
       </c>
-      <c r="R9" s="122"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="122"/>
-      <c r="U9" s="123"/>
-      <c r="V9" s="121">
+      <c r="R9" s="114"/>
+      <c r="S9" s="114"/>
+      <c r="T9" s="114"/>
+      <c r="U9" s="115"/>
+      <c r="V9" s="113">
         <v>4</v>
       </c>
-      <c r="W9" s="122"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="123"/>
+      <c r="W9" s="114"/>
+      <c r="X9" s="114"/>
+      <c r="Y9" s="114"/>
+      <c r="Z9" s="115"/>
     </row>
     <row r="10" spans="1:26" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="118" t="s">
+      <c r="G10" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="126" t="s">
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="118" t="s">
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="119"/>
-      <c r="S10" s="119"/>
-      <c r="T10" s="119"/>
-      <c r="U10" s="120"/>
-      <c r="V10" s="118" t="s">
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="118"/>
+      <c r="V10" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="W10" s="119"/>
-      <c r="X10" s="119"/>
-      <c r="Y10" s="119"/>
-      <c r="Z10" s="120"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="118"/>
     </row>
     <row r="11" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
@@ -14890,14 +16892,266 @@
       <c r="Y72" s="48"/>
       <c r="Z72" s="49"/>
     </row>
-    <row r="73" spans="1:26" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="45"/>
+      <c r="M73" s="43"/>
+      <c r="N73" s="43"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="46"/>
+      <c r="Q73" s="47"/>
+      <c r="R73" s="48"/>
+      <c r="S73" s="48"/>
+      <c r="T73" s="48"/>
+      <c r="U73" s="49"/>
+      <c r="V73" s="47"/>
+      <c r="W73" s="48"/>
+      <c r="X73" s="48"/>
+      <c r="Y73" s="48"/>
+      <c r="Z73" s="49"/>
+    </row>
+    <row r="74" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="48"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="43"/>
+      <c r="O74" s="43"/>
+      <c r="P74" s="46"/>
+      <c r="Q74" s="47"/>
+      <c r="R74" s="48"/>
+      <c r="S74" s="48"/>
+      <c r="T74" s="48"/>
+      <c r="U74" s="49"/>
+      <c r="V74" s="47"/>
+      <c r="W74" s="48"/>
+      <c r="X74" s="48"/>
+      <c r="Y74" s="48"/>
+      <c r="Z74" s="49"/>
+    </row>
+    <row r="75" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="49"/>
+      <c r="L75" s="45"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="43"/>
+      <c r="P75" s="46"/>
+      <c r="Q75" s="47"/>
+      <c r="R75" s="48"/>
+      <c r="S75" s="48"/>
+      <c r="T75" s="48"/>
+      <c r="U75" s="49"/>
+      <c r="V75" s="47"/>
+      <c r="W75" s="48"/>
+      <c r="X75" s="48"/>
+      <c r="Y75" s="48"/>
+      <c r="Z75" s="49"/>
+    </row>
+    <row r="76" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="49"/>
+      <c r="L76" s="45"/>
+      <c r="M76" s="43"/>
+      <c r="N76" s="43"/>
+      <c r="O76" s="43"/>
+      <c r="P76" s="46"/>
+      <c r="Q76" s="47"/>
+      <c r="R76" s="48"/>
+      <c r="S76" s="48"/>
+      <c r="T76" s="48"/>
+      <c r="U76" s="49"/>
+      <c r="V76" s="47"/>
+      <c r="W76" s="48"/>
+      <c r="X76" s="48"/>
+      <c r="Y76" s="48"/>
+      <c r="Z76" s="49"/>
+    </row>
+    <row r="77" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="48"/>
+      <c r="K77" s="49"/>
+      <c r="L77" s="45"/>
+      <c r="M77" s="43"/>
+      <c r="N77" s="43"/>
+      <c r="O77" s="43"/>
+      <c r="P77" s="46"/>
+      <c r="Q77" s="47"/>
+      <c r="R77" s="48"/>
+      <c r="S77" s="48"/>
+      <c r="T77" s="48"/>
+      <c r="U77" s="49"/>
+      <c r="V77" s="47"/>
+      <c r="W77" s="48"/>
+      <c r="X77" s="48"/>
+      <c r="Y77" s="48"/>
+      <c r="Z77" s="49"/>
+    </row>
+    <row r="78" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="48"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="45"/>
+      <c r="M78" s="43"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="43"/>
+      <c r="P78" s="46"/>
+      <c r="Q78" s="47"/>
+      <c r="R78" s="48"/>
+      <c r="S78" s="48"/>
+      <c r="T78" s="48"/>
+      <c r="U78" s="49"/>
+      <c r="V78" s="47"/>
+      <c r="W78" s="48"/>
+      <c r="X78" s="48"/>
+      <c r="Y78" s="48"/>
+      <c r="Z78" s="49"/>
+    </row>
+    <row r="79" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="48"/>
+      <c r="K79" s="49"/>
+      <c r="L79" s="45"/>
+      <c r="M79" s="43"/>
+      <c r="N79" s="43"/>
+      <c r="O79" s="43"/>
+      <c r="P79" s="46"/>
+      <c r="Q79" s="47"/>
+      <c r="R79" s="48"/>
+      <c r="S79" s="48"/>
+      <c r="T79" s="48"/>
+      <c r="U79" s="49"/>
+      <c r="V79" s="47"/>
+      <c r="W79" s="48"/>
+      <c r="X79" s="48"/>
+      <c r="Y79" s="48"/>
+      <c r="Z79" s="49"/>
+    </row>
+    <row r="80" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="48"/>
+      <c r="K80" s="49"/>
+      <c r="L80" s="45"/>
+      <c r="M80" s="43"/>
+      <c r="N80" s="43"/>
+      <c r="O80" s="43"/>
+      <c r="P80" s="46"/>
+      <c r="Q80" s="47"/>
+      <c r="R80" s="48"/>
+      <c r="S80" s="48"/>
+      <c r="T80" s="48"/>
+      <c r="U80" s="49"/>
+      <c r="V80" s="47"/>
+      <c r="W80" s="48"/>
+      <c r="X80" s="48"/>
+      <c r="Y80" s="48"/>
+      <c r="Z80" s="49"/>
+    </row>
+    <row r="81" spans="1:26" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="48"/>
+      <c r="K81" s="49"/>
+      <c r="L81" s="45"/>
+      <c r="M81" s="43"/>
+      <c r="N81" s="43"/>
+      <c r="O81" s="43"/>
+      <c r="P81" s="46"/>
+      <c r="Q81" s="47"/>
+      <c r="R81" s="48"/>
+      <c r="S81" s="48"/>
+      <c r="T81" s="48"/>
+      <c r="U81" s="49"/>
+      <c r="V81" s="47"/>
+      <c r="W81" s="48"/>
+      <c r="X81" s="48"/>
+      <c r="Y81" s="48"/>
+      <c r="Z81" s="49"/>
+    </row>
+    <row r="82" spans="1:26" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="V10:Z10"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:P8"/>
     <mergeCell ref="Q8:U8"/>
@@ -14905,43 +17159,295 @@
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="L10:P10"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="V10:Z10"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="Q10:U10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G13:U72">
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="95" priority="58" operator="between">
       <formula>7</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="94" priority="59" operator="between">
       <formula>5</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="93" priority="60" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13:Z72">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="92" priority="55" operator="between">
       <formula>7</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="91" priority="56" operator="between">
       <formula>5</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="90" priority="57" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G73:U73">
+    <cfRule type="cellIs" dxfId="53" priority="52" operator="between">
+      <formula>7</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="between">
+      <formula>5</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="54" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V73:Z73">
+    <cfRule type="cellIs" dxfId="50" priority="49" operator="between">
+      <formula>7</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="between">
+      <formula>5</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="51" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74:U74">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="between">
+      <formula>7</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="between">
+      <formula>5</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V74:Z74">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="between">
+      <formula>7</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="between">
+      <formula>5</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G75:U75">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="between">
+      <formula>7</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="between">
+      <formula>5</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="42" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V75:Z75">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="between">
+      <formula>7</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="between">
+      <formula>5</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G76:U76">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="between">
+      <formula>7</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="between">
+      <formula>5</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V76:Z76">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="between">
+      <formula>7</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="between">
+      <formula>5</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G77:U77">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="between">
+      <formula>7</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="between">
+      <formula>5</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V77:Z77">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="between">
+      <formula>7</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="between">
+      <formula>5</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78:U78">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="between">
+      <formula>7</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="between">
+      <formula>5</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V78:Z78">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="between">
+      <formula>7</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="between">
+      <formula>5</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79:U79">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="between">
+      <formula>7</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="between">
+      <formula>5</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V79:Z79">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="between">
+      <formula>7</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="between">
+      <formula>5</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G80:U80">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="between">
+      <formula>7</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="between">
+      <formula>5</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V80:Z80">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="between">
+      <formula>7</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="between">
+      <formula>5</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G81:U81">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="between">
+      <formula>7</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+      <formula>5</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="between">
+      <formula>1</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V81:Z81">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+      <formula>7</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>5</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Sóno Números Enteros." sqref="G13:Z72" xr:uid="{A933C12D-315E-4332-A456-F6395E168A5C}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Sóno Números Enteros." sqref="G13:Z81" xr:uid="{A933C12D-315E-4332-A456-F6395E168A5C}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -14956,7 +17462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFEB375-2CDA-4386-902A-1DAF36D6D5F6}">
   <dimension ref="A1:DA73"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane xSplit="6" ySplit="12" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
@@ -14984,13 +17490,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="A1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:105" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -15009,15 +17515,15 @@
         <v>9</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="G4" s="109" t="s">
+      <c r="G4" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
       <c r="S4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AF4" s="4"/>
@@ -15043,531 +17549,531 @@
         <v>11</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="107" t="str">
+      <c r="G6" s="81" t="str">
         <f>IF(Y11&gt;110%,"Error Mayor que 110%","")</f>
         <v/>
       </c>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="Z6" s="107" t="str">
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="Z6" s="81" t="str">
         <f>IF(AR11&gt;110%,"Error Mayor que 110%","")</f>
         <v/>
       </c>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="108"/>
-      <c r="AC6" s="108"/>
-      <c r="AD6" s="108"/>
-      <c r="AE6" s="108"/>
-      <c r="AS6" s="107" t="str">
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="82"/>
+      <c r="AS6" s="81" t="str">
         <f>IF(BK11&gt;110%,"Error Mayor que 110%","")</f>
         <v/>
       </c>
-      <c r="AT6" s="108"/>
-      <c r="AU6" s="108"/>
-      <c r="AV6" s="108"/>
-      <c r="AW6" s="108"/>
-      <c r="AX6" s="108"/>
-      <c r="BL6" s="107" t="str">
+      <c r="AT6" s="82"/>
+      <c r="AU6" s="82"/>
+      <c r="AV6" s="82"/>
+      <c r="AW6" s="82"/>
+      <c r="AX6" s="82"/>
+      <c r="BL6" s="81" t="str">
         <f>IF(CD11&gt;110%,"Error Mayor que 110%","")</f>
         <v/>
       </c>
-      <c r="BM6" s="108"/>
-      <c r="BN6" s="108"/>
-      <c r="BO6" s="108"/>
-      <c r="BP6" s="108"/>
-      <c r="BQ6" s="108"/>
-      <c r="CE6" s="107" t="str">
+      <c r="BM6" s="82"/>
+      <c r="BN6" s="82"/>
+      <c r="BO6" s="82"/>
+      <c r="BP6" s="82"/>
+      <c r="BQ6" s="82"/>
+      <c r="CE6" s="81" t="str">
         <f>IF(CW11&gt;110%,"Error Mayor que 110%","")</f>
         <v/>
       </c>
-      <c r="CF6" s="108"/>
-      <c r="CG6" s="108"/>
-      <c r="CH6" s="108"/>
-      <c r="CI6" s="108"/>
-      <c r="CJ6" s="108"/>
+      <c r="CF6" s="82"/>
+      <c r="CG6" s="82"/>
+      <c r="CH6" s="82"/>
+      <c r="CI6" s="82"/>
+      <c r="CJ6" s="82"/>
     </row>
     <row r="7" spans="1:105" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="90"/>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="90"/>
-      <c r="AG7" s="90"/>
-      <c r="AH7" s="90"/>
-      <c r="AI7" s="90"/>
-      <c r="AJ7" s="90"/>
-      <c r="AK7" s="90"/>
-      <c r="AL7" s="90"/>
-      <c r="AM7" s="90"/>
-      <c r="AN7" s="90"/>
-      <c r="AO7" s="90"/>
-      <c r="AP7" s="90"/>
-      <c r="AQ7" s="90"/>
-      <c r="AR7" s="91"/>
-      <c r="AS7" s="89"/>
-      <c r="AT7" s="90"/>
-      <c r="AU7" s="90"/>
-      <c r="AV7" s="90"/>
-      <c r="AW7" s="90"/>
-      <c r="AX7" s="90"/>
-      <c r="AY7" s="90"/>
-      <c r="AZ7" s="90"/>
-      <c r="BA7" s="90"/>
-      <c r="BB7" s="90"/>
-      <c r="BC7" s="90"/>
-      <c r="BD7" s="90"/>
-      <c r="BE7" s="90"/>
-      <c r="BF7" s="90"/>
-      <c r="BG7" s="90"/>
-      <c r="BH7" s="90"/>
-      <c r="BI7" s="90"/>
-      <c r="BJ7" s="90"/>
-      <c r="BK7" s="91"/>
-      <c r="BL7" s="89"/>
-      <c r="BM7" s="90"/>
-      <c r="BN7" s="90"/>
-      <c r="BO7" s="90"/>
-      <c r="BP7" s="90"/>
-      <c r="BQ7" s="90"/>
-      <c r="BR7" s="90"/>
-      <c r="BS7" s="90"/>
-      <c r="BT7" s="90"/>
-      <c r="BU7" s="90"/>
-      <c r="BV7" s="90"/>
-      <c r="BW7" s="90"/>
-      <c r="BX7" s="90"/>
-      <c r="BY7" s="90"/>
-      <c r="BZ7" s="90"/>
-      <c r="CA7" s="90"/>
-      <c r="CB7" s="90"/>
-      <c r="CC7" s="90"/>
-      <c r="CD7" s="91"/>
-      <c r="CE7" s="89"/>
-      <c r="CF7" s="90"/>
-      <c r="CG7" s="90"/>
-      <c r="CH7" s="90"/>
-      <c r="CI7" s="90"/>
-      <c r="CJ7" s="90"/>
-      <c r="CK7" s="90"/>
-      <c r="CL7" s="90"/>
-      <c r="CM7" s="90"/>
-      <c r="CN7" s="90"/>
-      <c r="CO7" s="90"/>
-      <c r="CP7" s="90"/>
-      <c r="CQ7" s="90"/>
-      <c r="CR7" s="90"/>
-      <c r="CS7" s="90"/>
-      <c r="CT7" s="90"/>
-      <c r="CU7" s="90"/>
-      <c r="CV7" s="90"/>
-      <c r="CW7" s="91"/>
-      <c r="CX7" s="80" t="s">
+      <c r="G7" s="85"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="86"/>
+      <c r="AG7" s="86"/>
+      <c r="AH7" s="86"/>
+      <c r="AI7" s="86"/>
+      <c r="AJ7" s="86"/>
+      <c r="AK7" s="86"/>
+      <c r="AL7" s="86"/>
+      <c r="AM7" s="86"/>
+      <c r="AN7" s="86"/>
+      <c r="AO7" s="86"/>
+      <c r="AP7" s="86"/>
+      <c r="AQ7" s="86"/>
+      <c r="AR7" s="87"/>
+      <c r="AS7" s="94"/>
+      <c r="AT7" s="86"/>
+      <c r="AU7" s="86"/>
+      <c r="AV7" s="86"/>
+      <c r="AW7" s="86"/>
+      <c r="AX7" s="86"/>
+      <c r="AY7" s="86"/>
+      <c r="AZ7" s="86"/>
+      <c r="BA7" s="86"/>
+      <c r="BB7" s="86"/>
+      <c r="BC7" s="86"/>
+      <c r="BD7" s="86"/>
+      <c r="BE7" s="86"/>
+      <c r="BF7" s="86"/>
+      <c r="BG7" s="86"/>
+      <c r="BH7" s="86"/>
+      <c r="BI7" s="86"/>
+      <c r="BJ7" s="86"/>
+      <c r="BK7" s="87"/>
+      <c r="BL7" s="94"/>
+      <c r="BM7" s="86"/>
+      <c r="BN7" s="86"/>
+      <c r="BO7" s="86"/>
+      <c r="BP7" s="86"/>
+      <c r="BQ7" s="86"/>
+      <c r="BR7" s="86"/>
+      <c r="BS7" s="86"/>
+      <c r="BT7" s="86"/>
+      <c r="BU7" s="86"/>
+      <c r="BV7" s="86"/>
+      <c r="BW7" s="86"/>
+      <c r="BX7" s="86"/>
+      <c r="BY7" s="86"/>
+      <c r="BZ7" s="86"/>
+      <c r="CA7" s="86"/>
+      <c r="CB7" s="86"/>
+      <c r="CC7" s="86"/>
+      <c r="CD7" s="87"/>
+      <c r="CE7" s="94"/>
+      <c r="CF7" s="86"/>
+      <c r="CG7" s="86"/>
+      <c r="CH7" s="86"/>
+      <c r="CI7" s="86"/>
+      <c r="CJ7" s="86"/>
+      <c r="CK7" s="86"/>
+      <c r="CL7" s="86"/>
+      <c r="CM7" s="86"/>
+      <c r="CN7" s="86"/>
+      <c r="CO7" s="86"/>
+      <c r="CP7" s="86"/>
+      <c r="CQ7" s="86"/>
+      <c r="CR7" s="86"/>
+      <c r="CS7" s="86"/>
+      <c r="CT7" s="86"/>
+      <c r="CU7" s="86"/>
+      <c r="CV7" s="86"/>
+      <c r="CW7" s="87"/>
+      <c r="CX7" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="CY7" s="81"/>
-      <c r="CZ7" s="81"/>
-      <c r="DA7" s="82"/>
+      <c r="CY7" s="97"/>
+      <c r="CZ7" s="97"/>
+      <c r="DA7" s="98"/>
     </row>
     <row r="8" spans="1:105" ht="18" x14ac:dyDescent="0.25">
-      <c r="G8" s="92">
+      <c r="G8" s="91">
         <v>1</v>
       </c>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="94"/>
-      <c r="Z8" s="92">
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="91">
         <v>2</v>
       </c>
-      <c r="AA8" s="93"/>
-      <c r="AB8" s="93"/>
-      <c r="AC8" s="93"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="93"/>
-      <c r="AF8" s="93"/>
-      <c r="AG8" s="93"/>
-      <c r="AH8" s="93"/>
-      <c r="AI8" s="93"/>
-      <c r="AJ8" s="93"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="93"/>
-      <c r="AM8" s="93"/>
-      <c r="AN8" s="93"/>
-      <c r="AO8" s="93"/>
-      <c r="AP8" s="93"/>
-      <c r="AQ8" s="93"/>
-      <c r="AR8" s="94"/>
-      <c r="AS8" s="92">
+      <c r="AA8" s="92"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="92"/>
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="92"/>
+      <c r="AG8" s="92"/>
+      <c r="AH8" s="92"/>
+      <c r="AI8" s="92"/>
+      <c r="AJ8" s="92"/>
+      <c r="AK8" s="92"/>
+      <c r="AL8" s="92"/>
+      <c r="AM8" s="92"/>
+      <c r="AN8" s="92"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="92"/>
+      <c r="AQ8" s="92"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="91">
         <v>3</v>
       </c>
-      <c r="AT8" s="93"/>
-      <c r="AU8" s="93"/>
-      <c r="AV8" s="93"/>
-      <c r="AW8" s="93"/>
-      <c r="AX8" s="93"/>
-      <c r="AY8" s="93"/>
-      <c r="AZ8" s="93"/>
-      <c r="BA8" s="93"/>
-      <c r="BB8" s="93"/>
-      <c r="BC8" s="93"/>
-      <c r="BD8" s="93"/>
-      <c r="BE8" s="93"/>
-      <c r="BF8" s="93"/>
-      <c r="BG8" s="93"/>
-      <c r="BH8" s="93"/>
-      <c r="BI8" s="93"/>
-      <c r="BJ8" s="93"/>
-      <c r="BK8" s="94"/>
-      <c r="BL8" s="92">
+      <c r="AT8" s="92"/>
+      <c r="AU8" s="92"/>
+      <c r="AV8" s="92"/>
+      <c r="AW8" s="92"/>
+      <c r="AX8" s="92"/>
+      <c r="AY8" s="92"/>
+      <c r="AZ8" s="92"/>
+      <c r="BA8" s="92"/>
+      <c r="BB8" s="92"/>
+      <c r="BC8" s="92"/>
+      <c r="BD8" s="92"/>
+      <c r="BE8" s="92"/>
+      <c r="BF8" s="92"/>
+      <c r="BG8" s="92"/>
+      <c r="BH8" s="92"/>
+      <c r="BI8" s="92"/>
+      <c r="BJ8" s="92"/>
+      <c r="BK8" s="93"/>
+      <c r="BL8" s="91">
         <v>4</v>
       </c>
-      <c r="BM8" s="93"/>
-      <c r="BN8" s="93"/>
-      <c r="BO8" s="93"/>
-      <c r="BP8" s="93"/>
-      <c r="BQ8" s="93"/>
-      <c r="BR8" s="93"/>
-      <c r="BS8" s="93"/>
-      <c r="BT8" s="93"/>
-      <c r="BU8" s="93"/>
-      <c r="BV8" s="93"/>
-      <c r="BW8" s="93"/>
-      <c r="BX8" s="93"/>
-      <c r="BY8" s="93"/>
-      <c r="BZ8" s="93"/>
-      <c r="CA8" s="93"/>
-      <c r="CB8" s="93"/>
-      <c r="CC8" s="93"/>
-      <c r="CD8" s="94"/>
-      <c r="CE8" s="92">
+      <c r="BM8" s="92"/>
+      <c r="BN8" s="92"/>
+      <c r="BO8" s="92"/>
+      <c r="BP8" s="92"/>
+      <c r="BQ8" s="92"/>
+      <c r="BR8" s="92"/>
+      <c r="BS8" s="92"/>
+      <c r="BT8" s="92"/>
+      <c r="BU8" s="92"/>
+      <c r="BV8" s="92"/>
+      <c r="BW8" s="92"/>
+      <c r="BX8" s="92"/>
+      <c r="BY8" s="92"/>
+      <c r="BZ8" s="92"/>
+      <c r="CA8" s="92"/>
+      <c r="CB8" s="92"/>
+      <c r="CC8" s="92"/>
+      <c r="CD8" s="93"/>
+      <c r="CE8" s="91">
         <v>5</v>
       </c>
-      <c r="CF8" s="93"/>
-      <c r="CG8" s="93"/>
-      <c r="CH8" s="93"/>
-      <c r="CI8" s="93"/>
-      <c r="CJ8" s="93"/>
-      <c r="CK8" s="93"/>
-      <c r="CL8" s="93"/>
-      <c r="CM8" s="93"/>
-      <c r="CN8" s="93"/>
-      <c r="CO8" s="93"/>
-      <c r="CP8" s="93"/>
-      <c r="CQ8" s="93"/>
-      <c r="CR8" s="93"/>
-      <c r="CS8" s="93"/>
-      <c r="CT8" s="93"/>
-      <c r="CU8" s="93"/>
-      <c r="CV8" s="93"/>
-      <c r="CW8" s="94"/>
-      <c r="CX8" s="83"/>
-      <c r="CY8" s="84"/>
-      <c r="CZ8" s="84"/>
-      <c r="DA8" s="85"/>
+      <c r="CF8" s="92"/>
+      <c r="CG8" s="92"/>
+      <c r="CH8" s="92"/>
+      <c r="CI8" s="92"/>
+      <c r="CJ8" s="92"/>
+      <c r="CK8" s="92"/>
+      <c r="CL8" s="92"/>
+      <c r="CM8" s="92"/>
+      <c r="CN8" s="92"/>
+      <c r="CO8" s="92"/>
+      <c r="CP8" s="92"/>
+      <c r="CQ8" s="92"/>
+      <c r="CR8" s="92"/>
+      <c r="CS8" s="92"/>
+      <c r="CT8" s="92"/>
+      <c r="CU8" s="92"/>
+      <c r="CV8" s="92"/>
+      <c r="CW8" s="93"/>
+      <c r="CX8" s="99"/>
+      <c r="CY8" s="100"/>
+      <c r="CZ8" s="100"/>
+      <c r="DA8" s="101"/>
     </row>
     <row r="9" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G9" s="101" t="s">
+      <c r="G9" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="102"/>
-      <c r="W9" s="102"/>
-      <c r="X9" s="102"/>
-      <c r="Y9" s="103"/>
-      <c r="Z9" s="101" t="s">
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="102"/>
-      <c r="AD9" s="102"/>
-      <c r="AE9" s="102"/>
-      <c r="AF9" s="102"/>
-      <c r="AG9" s="102"/>
-      <c r="AH9" s="102"/>
-      <c r="AI9" s="102"/>
-      <c r="AJ9" s="102"/>
-      <c r="AK9" s="102"/>
-      <c r="AL9" s="102"/>
-      <c r="AM9" s="102"/>
-      <c r="AN9" s="102"/>
-      <c r="AO9" s="102"/>
-      <c r="AP9" s="102"/>
-      <c r="AQ9" s="102"/>
-      <c r="AR9" s="103"/>
-      <c r="AS9" s="101" t="s">
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="89"/>
+      <c r="AF9" s="89"/>
+      <c r="AG9" s="89"/>
+      <c r="AH9" s="89"/>
+      <c r="AI9" s="89"/>
+      <c r="AJ9" s="89"/>
+      <c r="AK9" s="89"/>
+      <c r="AL9" s="89"/>
+      <c r="AM9" s="89"/>
+      <c r="AN9" s="89"/>
+      <c r="AO9" s="89"/>
+      <c r="AP9" s="89"/>
+      <c r="AQ9" s="89"/>
+      <c r="AR9" s="90"/>
+      <c r="AS9" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="AT9" s="102"/>
-      <c r="AU9" s="102"/>
-      <c r="AV9" s="102"/>
-      <c r="AW9" s="102"/>
-      <c r="AX9" s="102"/>
-      <c r="AY9" s="102"/>
-      <c r="AZ9" s="102"/>
-      <c r="BA9" s="102"/>
-      <c r="BB9" s="102"/>
-      <c r="BC9" s="102"/>
-      <c r="BD9" s="102"/>
-      <c r="BE9" s="102"/>
-      <c r="BF9" s="102"/>
-      <c r="BG9" s="102"/>
-      <c r="BH9" s="102"/>
-      <c r="BI9" s="102"/>
-      <c r="BJ9" s="102"/>
-      <c r="BK9" s="103"/>
-      <c r="BL9" s="95" t="s">
+      <c r="AT9" s="89"/>
+      <c r="AU9" s="89"/>
+      <c r="AV9" s="89"/>
+      <c r="AW9" s="89"/>
+      <c r="AX9" s="89"/>
+      <c r="AY9" s="89"/>
+      <c r="AZ9" s="89"/>
+      <c r="BA9" s="89"/>
+      <c r="BB9" s="89"/>
+      <c r="BC9" s="89"/>
+      <c r="BD9" s="89"/>
+      <c r="BE9" s="89"/>
+      <c r="BF9" s="89"/>
+      <c r="BG9" s="89"/>
+      <c r="BH9" s="89"/>
+      <c r="BI9" s="89"/>
+      <c r="BJ9" s="89"/>
+      <c r="BK9" s="90"/>
+      <c r="BL9" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="BM9" s="96"/>
-      <c r="BN9" s="96"/>
-      <c r="BO9" s="96"/>
-      <c r="BP9" s="96"/>
-      <c r="BQ9" s="96"/>
-      <c r="BR9" s="96"/>
-      <c r="BS9" s="96"/>
-      <c r="BT9" s="96"/>
-      <c r="BU9" s="96"/>
-      <c r="BV9" s="96"/>
-      <c r="BW9" s="96"/>
-      <c r="BX9" s="96"/>
-      <c r="BY9" s="96"/>
-      <c r="BZ9" s="96"/>
-      <c r="CA9" s="96"/>
-      <c r="CB9" s="96"/>
-      <c r="CC9" s="96"/>
-      <c r="CD9" s="97"/>
-      <c r="CE9" s="95" t="s">
+      <c r="BM9" s="106"/>
+      <c r="BN9" s="106"/>
+      <c r="BO9" s="106"/>
+      <c r="BP9" s="106"/>
+      <c r="BQ9" s="106"/>
+      <c r="BR9" s="106"/>
+      <c r="BS9" s="106"/>
+      <c r="BT9" s="106"/>
+      <c r="BU9" s="106"/>
+      <c r="BV9" s="106"/>
+      <c r="BW9" s="106"/>
+      <c r="BX9" s="106"/>
+      <c r="BY9" s="106"/>
+      <c r="BZ9" s="106"/>
+      <c r="CA9" s="106"/>
+      <c r="CB9" s="106"/>
+      <c r="CC9" s="106"/>
+      <c r="CD9" s="107"/>
+      <c r="CE9" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="CF9" s="96"/>
-      <c r="CG9" s="96"/>
-      <c r="CH9" s="96"/>
-      <c r="CI9" s="96"/>
-      <c r="CJ9" s="96"/>
-      <c r="CK9" s="96"/>
-      <c r="CL9" s="96"/>
-      <c r="CM9" s="96"/>
-      <c r="CN9" s="96"/>
-      <c r="CO9" s="96"/>
-      <c r="CP9" s="96"/>
-      <c r="CQ9" s="96"/>
-      <c r="CR9" s="96"/>
-      <c r="CS9" s="96"/>
-      <c r="CT9" s="96"/>
-      <c r="CU9" s="96"/>
-      <c r="CV9" s="96"/>
-      <c r="CW9" s="97"/>
-      <c r="CX9" s="83"/>
-      <c r="CY9" s="84"/>
-      <c r="CZ9" s="84"/>
-      <c r="DA9" s="85"/>
+      <c r="CF9" s="106"/>
+      <c r="CG9" s="106"/>
+      <c r="CH9" s="106"/>
+      <c r="CI9" s="106"/>
+      <c r="CJ9" s="106"/>
+      <c r="CK9" s="106"/>
+      <c r="CL9" s="106"/>
+      <c r="CM9" s="106"/>
+      <c r="CN9" s="106"/>
+      <c r="CO9" s="106"/>
+      <c r="CP9" s="106"/>
+      <c r="CQ9" s="106"/>
+      <c r="CR9" s="106"/>
+      <c r="CS9" s="106"/>
+      <c r="CT9" s="106"/>
+      <c r="CU9" s="106"/>
+      <c r="CV9" s="106"/>
+      <c r="CW9" s="107"/>
+      <c r="CX9" s="99"/>
+      <c r="CY9" s="100"/>
+      <c r="CZ9" s="100"/>
+      <c r="DA9" s="101"/>
     </row>
     <row r="10" spans="1:105" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="104" t="s">
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="104" t="s">
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="T10" s="105"/>
-      <c r="U10" s="105"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="104" t="s">
+      <c r="T10" s="84"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="X10" s="106"/>
+      <c r="X10" s="80"/>
       <c r="Y10" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="Z10" s="104" t="s">
+      <c r="Z10" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="AA10" s="105"/>
-      <c r="AB10" s="105"/>
-      <c r="AC10" s="105"/>
-      <c r="AD10" s="105"/>
-      <c r="AE10" s="106"/>
-      <c r="AF10" s="104" t="s">
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="84"/>
+      <c r="AE10" s="80"/>
+      <c r="AF10" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="AG10" s="105"/>
-      <c r="AH10" s="105"/>
-      <c r="AI10" s="105"/>
-      <c r="AJ10" s="105"/>
-      <c r="AK10" s="106"/>
-      <c r="AL10" s="104" t="s">
+      <c r="AG10" s="84"/>
+      <c r="AH10" s="84"/>
+      <c r="AI10" s="84"/>
+      <c r="AJ10" s="84"/>
+      <c r="AK10" s="80"/>
+      <c r="AL10" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="AM10" s="105"/>
-      <c r="AN10" s="105"/>
-      <c r="AO10" s="106"/>
-      <c r="AP10" s="104" t="s">
+      <c r="AM10" s="84"/>
+      <c r="AN10" s="84"/>
+      <c r="AO10" s="80"/>
+      <c r="AP10" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="AQ10" s="106"/>
+      <c r="AQ10" s="80"/>
       <c r="AR10" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AS10" s="104" t="s">
+      <c r="AS10" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="AT10" s="105"/>
-      <c r="AU10" s="105"/>
-      <c r="AV10" s="105"/>
-      <c r="AW10" s="105"/>
-      <c r="AX10" s="106"/>
-      <c r="AY10" s="104" t="s">
+      <c r="AT10" s="84"/>
+      <c r="AU10" s="84"/>
+      <c r="AV10" s="84"/>
+      <c r="AW10" s="84"/>
+      <c r="AX10" s="80"/>
+      <c r="AY10" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="AZ10" s="105"/>
-      <c r="BA10" s="105"/>
-      <c r="BB10" s="105"/>
-      <c r="BC10" s="105"/>
-      <c r="BD10" s="106"/>
-      <c r="BE10" s="104" t="s">
+      <c r="AZ10" s="84"/>
+      <c r="BA10" s="84"/>
+      <c r="BB10" s="84"/>
+      <c r="BC10" s="84"/>
+      <c r="BD10" s="80"/>
+      <c r="BE10" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="BF10" s="105"/>
-      <c r="BG10" s="105"/>
-      <c r="BH10" s="106"/>
-      <c r="BI10" s="104" t="s">
+      <c r="BF10" s="84"/>
+      <c r="BG10" s="84"/>
+      <c r="BH10" s="80"/>
+      <c r="BI10" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="BJ10" s="106"/>
+      <c r="BJ10" s="80"/>
       <c r="BK10" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="BL10" s="98" t="s">
+      <c r="BL10" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="BM10" s="99"/>
-      <c r="BN10" s="99"/>
-      <c r="BO10" s="99"/>
-      <c r="BP10" s="99"/>
-      <c r="BQ10" s="100"/>
-      <c r="BR10" s="98" t="s">
+      <c r="BM10" s="109"/>
+      <c r="BN10" s="109"/>
+      <c r="BO10" s="109"/>
+      <c r="BP10" s="109"/>
+      <c r="BQ10" s="110"/>
+      <c r="BR10" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="BS10" s="99"/>
-      <c r="BT10" s="99"/>
-      <c r="BU10" s="99"/>
-      <c r="BV10" s="99"/>
-      <c r="BW10" s="100"/>
-      <c r="BX10" s="98" t="s">
+      <c r="BS10" s="109"/>
+      <c r="BT10" s="109"/>
+      <c r="BU10" s="109"/>
+      <c r="BV10" s="109"/>
+      <c r="BW10" s="110"/>
+      <c r="BX10" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="BY10" s="99"/>
-      <c r="BZ10" s="99"/>
-      <c r="CA10" s="100"/>
-      <c r="CB10" s="98" t="s">
+      <c r="BY10" s="109"/>
+      <c r="BZ10" s="109"/>
+      <c r="CA10" s="110"/>
+      <c r="CB10" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="CC10" s="100"/>
+      <c r="CC10" s="110"/>
       <c r="CD10" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="CE10" s="98" t="s">
+      <c r="CE10" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="CF10" s="99"/>
-      <c r="CG10" s="99"/>
-      <c r="CH10" s="99"/>
-      <c r="CI10" s="99"/>
-      <c r="CJ10" s="100"/>
-      <c r="CK10" s="98" t="s">
+      <c r="CF10" s="109"/>
+      <c r="CG10" s="109"/>
+      <c r="CH10" s="109"/>
+      <c r="CI10" s="109"/>
+      <c r="CJ10" s="110"/>
+      <c r="CK10" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="CL10" s="99"/>
-      <c r="CM10" s="99"/>
-      <c r="CN10" s="99"/>
-      <c r="CO10" s="99"/>
-      <c r="CP10" s="100"/>
-      <c r="CQ10" s="98" t="s">
+      <c r="CL10" s="109"/>
+      <c r="CM10" s="109"/>
+      <c r="CN10" s="109"/>
+      <c r="CO10" s="109"/>
+      <c r="CP10" s="110"/>
+      <c r="CQ10" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="CR10" s="99"/>
-      <c r="CS10" s="99"/>
-      <c r="CT10" s="100"/>
-      <c r="CU10" s="98" t="s">
+      <c r="CR10" s="109"/>
+      <c r="CS10" s="109"/>
+      <c r="CT10" s="110"/>
+      <c r="CU10" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="CV10" s="100"/>
+      <c r="CV10" s="110"/>
       <c r="CW10" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="CX10" s="83"/>
-      <c r="CY10" s="84"/>
-      <c r="CZ10" s="84"/>
-      <c r="DA10" s="85"/>
+      <c r="CX10" s="99"/>
+      <c r="CY10" s="100"/>
+      <c r="CZ10" s="100"/>
+      <c r="DA10" s="101"/>
     </row>
     <row r="11" spans="1:105" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E11" s="63"/>
@@ -15744,10 +18250,10 @@
         <f>IF(CV11+CT11+CP11+CJ11&gt;110%,"error",CV11+CT11+CP11+CJ11)</f>
         <v>0</v>
       </c>
-      <c r="CX11" s="86"/>
-      <c r="CY11" s="87"/>
-      <c r="CZ11" s="87"/>
-      <c r="DA11" s="88"/>
+      <c r="CX11" s="102"/>
+      <c r="CY11" s="103"/>
+      <c r="CZ11" s="103"/>
+      <c r="DA11" s="104"/>
     </row>
     <row r="12" spans="1:105" ht="93.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="65" t="s">
@@ -27390,6 +29896,38 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="43">
+    <mergeCell ref="BL6:BQ6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="Z6:AE6"/>
+    <mergeCell ref="AS6:AX6"/>
+    <mergeCell ref="G7:Y7"/>
+    <mergeCell ref="Z7:AR7"/>
+    <mergeCell ref="AS7:BK7"/>
+    <mergeCell ref="BL7:CD7"/>
+    <mergeCell ref="CX7:DA11"/>
+    <mergeCell ref="G8:Y8"/>
+    <mergeCell ref="Z8:AR8"/>
+    <mergeCell ref="AS8:BK8"/>
+    <mergeCell ref="BL8:CD8"/>
+    <mergeCell ref="G9:Y9"/>
+    <mergeCell ref="BL10:BQ10"/>
+    <mergeCell ref="Z9:AR9"/>
+    <mergeCell ref="AS9:BK9"/>
+    <mergeCell ref="BL9:CD9"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Z10:AE10"/>
+    <mergeCell ref="AF10:AK10"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AP10:AQ10"/>
+    <mergeCell ref="AS10:AX10"/>
+    <mergeCell ref="AY10:BD10"/>
+    <mergeCell ref="BE10:BH10"/>
+    <mergeCell ref="BI10:BJ10"/>
     <mergeCell ref="CU10:CV10"/>
     <mergeCell ref="BR10:BW10"/>
     <mergeCell ref="BX10:CA10"/>
@@ -27401,41 +29939,9 @@
     <mergeCell ref="CE10:CJ10"/>
     <mergeCell ref="CK10:CP10"/>
     <mergeCell ref="CQ10:CT10"/>
-    <mergeCell ref="AP10:AQ10"/>
-    <mergeCell ref="AS10:AX10"/>
-    <mergeCell ref="AY10:BD10"/>
-    <mergeCell ref="BE10:BH10"/>
-    <mergeCell ref="BI10:BJ10"/>
-    <mergeCell ref="BL10:BQ10"/>
-    <mergeCell ref="Z9:AR9"/>
-    <mergeCell ref="AS9:BK9"/>
-    <mergeCell ref="BL9:CD9"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Z10:AE10"/>
-    <mergeCell ref="AF10:AK10"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="G7:Y7"/>
-    <mergeCell ref="Z7:AR7"/>
-    <mergeCell ref="AS7:BK7"/>
-    <mergeCell ref="BL7:CD7"/>
-    <mergeCell ref="CX7:DA11"/>
-    <mergeCell ref="G8:Y8"/>
-    <mergeCell ref="Z8:AR8"/>
-    <mergeCell ref="AS8:BK8"/>
-    <mergeCell ref="BL8:CD8"/>
-    <mergeCell ref="G9:Y9"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="Z6:AE6"/>
-    <mergeCell ref="AS6:AX6"/>
-    <mergeCell ref="BL6:BQ6"/>
   </mergeCells>
   <conditionalFormatting sqref="DA13:DA72">
-    <cfRule type="cellIs" dxfId="35" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="27" stopIfTrue="1" operator="equal">
       <formula>"Reprobado"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27446,125 +29952,125 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CZ13:CZ72">
-    <cfRule type="cellIs" dxfId="34" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="88" priority="24" operator="between">
       <formula>7</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="87" priority="25" operator="between">
       <formula>5</formula>
       <formula>6.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="86" priority="26" operator="between">
       <formula>0</formula>
       <formula>4.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX13:CX72">
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="21" operator="between">
       <formula>7</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="84" priority="22" operator="between">
       <formula>5</formula>
       <formula>6.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="83" priority="23" operator="between">
       <formula>0</formula>
       <formula>4.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:Y72">
-    <cfRule type="cellIs" dxfId="28" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="82" priority="18" operator="between">
       <formula>7</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="19" operator="between">
       <formula>5</formula>
       <formula>6.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="80" priority="20" operator="between">
       <formula>0</formula>
       <formula>4.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11">
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="17" operator="greaterThan">
       <formula>1.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR11">
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="16" operator="greaterThan">
       <formula>1.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK11">
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="15" operator="greaterThan">
       <formula>1.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR13:AR72">
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="12" operator="between">
       <formula>7</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="75" priority="13" operator="between">
       <formula>5</formula>
       <formula>6.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="74" priority="14" operator="between">
       <formula>0</formula>
       <formula>4.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK13:BK72">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="9" operator="between">
       <formula>7</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="72" priority="10" operator="between">
       <formula>5</formula>
       <formula>6.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="71" priority="11" operator="between">
       <formula>0</formula>
       <formula>4.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD13:CD72">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="6" operator="between">
       <formula>7</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="7" operator="between">
       <formula>5</formula>
       <formula>6.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="8" operator="between">
       <formula>0</formula>
       <formula>4.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD11">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="5" operator="greaterThan">
       <formula>1.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CW13:CW72">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="between">
       <formula>7</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="3" operator="between">
       <formula>5</formula>
       <formula>6.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="64" priority="4" operator="between">
       <formula>0</formula>
       <formula>4.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CW11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="greaterThan">
       <formula>1.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27593,7 +30099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA979655-0132-4159-9E48-5FD04A5E3C5E}">
   <dimension ref="A1:AE73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -27607,13 +30113,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="A1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:31" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -27638,148 +30144,148 @@
         <v>10</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="G5" s="111" t="s">
+      <c r="G5" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="111"/>
+      <c r="H5" s="124"/>
       <c r="I5" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="112" t="s">
+      <c r="J5" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="112"/>
+      <c r="K5" s="125"/>
     </row>
     <row r="6" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="113" t="s">
+      <c r="J6" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="113"/>
+      <c r="K6" s="126"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
       <c r="I7" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="114" t="s">
+      <c r="J7" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="114"/>
+      <c r="K7" s="127"/>
     </row>
     <row r="8" spans="1:31" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="115"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="116"/>
-      <c r="Z8" s="117"/>
-      <c r="AA8" s="116"/>
-      <c r="AB8" s="116"/>
-      <c r="AC8" s="116"/>
-      <c r="AD8" s="116"/>
-      <c r="AE8" s="117"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="111"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="111"/>
+      <c r="Y8" s="111"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="111"/>
+      <c r="AB8" s="111"/>
+      <c r="AC8" s="111"/>
+      <c r="AD8" s="111"/>
+      <c r="AE8" s="112"/>
     </row>
     <row r="9" spans="1:31" ht="24" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="G9" s="121">
+      <c r="G9" s="113">
         <v>1</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="124">
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="120">
         <v>2</v>
       </c>
-      <c r="M9" s="122"/>
-      <c r="N9" s="122"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="121">
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="113">
         <v>3</v>
       </c>
-      <c r="R9" s="122"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="122"/>
-      <c r="U9" s="123"/>
-      <c r="V9" s="121">
+      <c r="R9" s="114"/>
+      <c r="S9" s="114"/>
+      <c r="T9" s="114"/>
+      <c r="U9" s="115"/>
+      <c r="V9" s="113">
         <v>4</v>
       </c>
-      <c r="W9" s="122"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="123"/>
-      <c r="AA9" s="121">
+      <c r="W9" s="114"/>
+      <c r="X9" s="114"/>
+      <c r="Y9" s="114"/>
+      <c r="Z9" s="115"/>
+      <c r="AA9" s="113">
         <v>5</v>
       </c>
-      <c r="AB9" s="122"/>
-      <c r="AC9" s="122"/>
-      <c r="AD9" s="122"/>
-      <c r="AE9" s="123"/>
+      <c r="AB9" s="114"/>
+      <c r="AC9" s="114"/>
+      <c r="AD9" s="114"/>
+      <c r="AE9" s="115"/>
     </row>
     <row r="10" spans="1:31" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="118" t="s">
+      <c r="G10" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="126" t="s">
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="118" t="s">
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="119"/>
-      <c r="S10" s="119"/>
-      <c r="T10" s="119"/>
-      <c r="U10" s="120"/>
-      <c r="V10" s="118" t="s">
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="118"/>
+      <c r="V10" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="W10" s="119"/>
-      <c r="X10" s="119"/>
-      <c r="Y10" s="119"/>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="118" t="s">
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="118"/>
+      <c r="AA10" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="AB10" s="119"/>
-      <c r="AC10" s="119"/>
-      <c r="AD10" s="119"/>
-      <c r="AE10" s="120"/>
+      <c r="AB10" s="117"/>
+      <c r="AC10" s="117"/>
+      <c r="AD10" s="117"/>
+      <c r="AE10" s="118"/>
     </row>
     <row r="11" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
@@ -29838,6 +32344,11 @@
     <row r="73" spans="1:31" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="L10:P10"/>
     <mergeCell ref="Q10:U10"/>
@@ -29852,51 +32363,46 @@
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="Q9:U9"/>
     <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
     <mergeCell ref="G8:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="G13:U72">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="7" operator="between">
       <formula>7</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="8" operator="between">
       <formula>5</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="9" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13:Z72">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="between">
       <formula>7</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="between">
       <formula>5</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="6" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13:AE72">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="between">
       <formula>7</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="between">
       <formula>5</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="between">
       <formula>1</formula>
       <formula>4</formula>
     </cfRule>
